--- a/formatos/editar-user-empresa.xlsx
+++ b/formatos/editar-user-empresa.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Factoria - Digtl01\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="4275" yWindow="0" windowWidth="19560" windowHeight="10080"/>
   </bookViews>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="899">
   <si>
     <t>EMPRESA</t>
   </si>
@@ -66,12 +71,2658 @@
   </si>
   <si>
     <t>SECCIÓN</t>
+  </si>
+  <si>
+    <t>KFC - 03</t>
+  </si>
+  <si>
+    <t>KFC - 04</t>
+  </si>
+  <si>
+    <t>PH - 01</t>
+  </si>
+  <si>
+    <t>KFC - 05</t>
+  </si>
+  <si>
+    <t>KFC - 06</t>
+  </si>
+  <si>
+    <t>PH - 02</t>
+  </si>
+  <si>
+    <t>KFC - 07</t>
+  </si>
+  <si>
+    <t>PH - 03</t>
+  </si>
+  <si>
+    <t>KFC - 08</t>
+  </si>
+  <si>
+    <t>BK - 01</t>
+  </si>
+  <si>
+    <t>KFC - 09</t>
+  </si>
+  <si>
+    <t>BK - 02</t>
+  </si>
+  <si>
+    <t>PH - 04</t>
+  </si>
+  <si>
+    <t>PH - 05</t>
+  </si>
+  <si>
+    <t>KFC - 10</t>
+  </si>
+  <si>
+    <t>PH - 06</t>
+  </si>
+  <si>
+    <t>BK - 04</t>
+  </si>
+  <si>
+    <t>PH - 07</t>
+  </si>
+  <si>
+    <t>BK - 07</t>
+  </si>
+  <si>
+    <t>BK - 08</t>
+  </si>
+  <si>
+    <t>KFC - 101</t>
+  </si>
+  <si>
+    <t>KFC - 102</t>
+  </si>
+  <si>
+    <t>BK - 10</t>
+  </si>
+  <si>
+    <t>BK - 12</t>
+  </si>
+  <si>
+    <t>KFC - 103</t>
+  </si>
+  <si>
+    <t>PH - 09</t>
+  </si>
+  <si>
+    <t>KFC - 105</t>
+  </si>
+  <si>
+    <t>CH - 01</t>
+  </si>
+  <si>
+    <t>BK - 35</t>
+  </si>
+  <si>
+    <t>KFC - 106</t>
+  </si>
+  <si>
+    <t>KFC - 107</t>
+  </si>
+  <si>
+    <t>PH - 12</t>
+  </si>
+  <si>
+    <t>BK - 15</t>
+  </si>
+  <si>
+    <t>BK - 63</t>
+  </si>
+  <si>
+    <t>PH - 13</t>
+  </si>
+  <si>
+    <t>BK - 38</t>
+  </si>
+  <si>
+    <t>PH - 14</t>
+  </si>
+  <si>
+    <t>KFC - 108</t>
+  </si>
+  <si>
+    <t>CH - 02</t>
+  </si>
+  <si>
+    <t>BK - 62</t>
+  </si>
+  <si>
+    <t>BK - 41</t>
+  </si>
+  <si>
+    <t>KFC - 109</t>
+  </si>
+  <si>
+    <t>KFC - 11</t>
+  </si>
+  <si>
+    <t>SBUX - 89</t>
+  </si>
+  <si>
+    <t>PH - 15</t>
+  </si>
+  <si>
+    <t>PH - 16</t>
+  </si>
+  <si>
+    <t>KFC - 110</t>
+  </si>
+  <si>
+    <t>KFC - 111</t>
+  </si>
+  <si>
+    <t>KFC - 112</t>
+  </si>
+  <si>
+    <t>PH - 17</t>
+  </si>
+  <si>
+    <t>KFC - 113</t>
+  </si>
+  <si>
+    <t>PH - 18</t>
+  </si>
+  <si>
+    <t>KFC - 114</t>
+  </si>
+  <si>
+    <t>KFC - 115</t>
+  </si>
+  <si>
+    <t>PH - 19</t>
+  </si>
+  <si>
+    <t>KFC - 116</t>
+  </si>
+  <si>
+    <t>KFC - 117</t>
+  </si>
+  <si>
+    <t>KFC - 118</t>
+  </si>
+  <si>
+    <t>PH - 21</t>
+  </si>
+  <si>
+    <t>BK - 17</t>
+  </si>
+  <si>
+    <t>KFC - 119</t>
+  </si>
+  <si>
+    <t>SBUX - 01</t>
+  </si>
+  <si>
+    <t>SBUX - 03</t>
+  </si>
+  <si>
+    <t>PH - 23</t>
+  </si>
+  <si>
+    <t>SBUX - 02</t>
+  </si>
+  <si>
+    <t>SBUX - 04</t>
+  </si>
+  <si>
+    <t>SBUX - 06</t>
+  </si>
+  <si>
+    <t>SBUX - 76</t>
+  </si>
+  <si>
+    <t>PH - 24</t>
+  </si>
+  <si>
+    <t>KFC - 120</t>
+  </si>
+  <si>
+    <t>PH - 25</t>
+  </si>
+  <si>
+    <t>SBUX - 05</t>
+  </si>
+  <si>
+    <t>BK - 18</t>
+  </si>
+  <si>
+    <t>PH - 26</t>
+  </si>
+  <si>
+    <t>KFC - 121</t>
+  </si>
+  <si>
+    <t>PH - 27</t>
+  </si>
+  <si>
+    <t>CH - 03</t>
+  </si>
+  <si>
+    <t>SBUX - 07</t>
+  </si>
+  <si>
+    <t>KFC - 122</t>
+  </si>
+  <si>
+    <t>SBUX - 09</t>
+  </si>
+  <si>
+    <t>KFC - 123</t>
+  </si>
+  <si>
+    <t>KFC - 125</t>
+  </si>
+  <si>
+    <t>KFC - 126</t>
+  </si>
+  <si>
+    <t>PH - 28</t>
+  </si>
+  <si>
+    <t>SBUX - 10</t>
+  </si>
+  <si>
+    <t>PH - 29</t>
+  </si>
+  <si>
+    <t>CH - 04</t>
+  </si>
+  <si>
+    <t>BK - 24</t>
+  </si>
+  <si>
+    <t>SBUX - 11</t>
+  </si>
+  <si>
+    <t>SBUX - 12</t>
+  </si>
+  <si>
+    <t>SBUX - 14</t>
+  </si>
+  <si>
+    <t>KFC - 14</t>
+  </si>
+  <si>
+    <t>SBUX - 13</t>
+  </si>
+  <si>
+    <t>SBUX - 15</t>
+  </si>
+  <si>
+    <t>KFC - 15</t>
+  </si>
+  <si>
+    <t>SBUX - 16</t>
+  </si>
+  <si>
+    <t>CH - 05</t>
+  </si>
+  <si>
+    <t>SBUX - 19</t>
+  </si>
+  <si>
+    <t>KFC - 17</t>
+  </si>
+  <si>
+    <t>KFC - 18</t>
+  </si>
+  <si>
+    <t>KFC - 19</t>
+  </si>
+  <si>
+    <t>SBUX - 28</t>
+  </si>
+  <si>
+    <t>SBUX - 17</t>
+  </si>
+  <si>
+    <t>SBUX - 21</t>
+  </si>
+  <si>
+    <t>SBUX - 20</t>
+  </si>
+  <si>
+    <t>SBUX - 27</t>
+  </si>
+  <si>
+    <t>PH - 41</t>
+  </si>
+  <si>
+    <t>KFC - 20</t>
+  </si>
+  <si>
+    <t>PB - 08</t>
+  </si>
+  <si>
+    <t>BK - 23</t>
+  </si>
+  <si>
+    <t>PH - 33</t>
+  </si>
+  <si>
+    <t>KFC - 21</t>
+  </si>
+  <si>
+    <t>KFC - 22</t>
+  </si>
+  <si>
+    <t>SBUX - 23</t>
+  </si>
+  <si>
+    <t>KFC - 23</t>
+  </si>
+  <si>
+    <t>CH - 06</t>
+  </si>
+  <si>
+    <t>KFC - 24</t>
+  </si>
+  <si>
+    <t>CH - 07</t>
+  </si>
+  <si>
+    <t>CH - 15</t>
+  </si>
+  <si>
+    <t>SBUX - 25</t>
+  </si>
+  <si>
+    <t>KFC - 25</t>
+  </si>
+  <si>
+    <t>BK - 25</t>
+  </si>
+  <si>
+    <t>SBUX - 26</t>
+  </si>
+  <si>
+    <t>BK - 26</t>
+  </si>
+  <si>
+    <t>SBUX - 63</t>
+  </si>
+  <si>
+    <t>PH - 36</t>
+  </si>
+  <si>
+    <t>PHD - 01</t>
+  </si>
+  <si>
+    <t>KFC - 26</t>
+  </si>
+  <si>
+    <t>PH - 37</t>
+  </si>
+  <si>
+    <t>PHD - 02</t>
+  </si>
+  <si>
+    <t>KFC - 27</t>
+  </si>
+  <si>
+    <t>PHD - 03</t>
+  </si>
+  <si>
+    <t>BK - 27</t>
+  </si>
+  <si>
+    <t>PHD - 04</t>
+  </si>
+  <si>
+    <t>KFC - 28</t>
+  </si>
+  <si>
+    <t>KFC - 29</t>
+  </si>
+  <si>
+    <t>CH - 18</t>
+  </si>
+  <si>
+    <t>SBUX - 30</t>
+  </si>
+  <si>
+    <t>PH - 30</t>
+  </si>
+  <si>
+    <t>BK - 28</t>
+  </si>
+  <si>
+    <t>PHD - 05</t>
+  </si>
+  <si>
+    <t>PH - 40</t>
+  </si>
+  <si>
+    <t>BK - 31</t>
+  </si>
+  <si>
+    <t>SBUX - 29</t>
+  </si>
+  <si>
+    <t>SBUX - 24</t>
+  </si>
+  <si>
+    <t>BK - 32</t>
+  </si>
+  <si>
+    <t>PH - 42</t>
+  </si>
+  <si>
+    <t>BK - 33</t>
+  </si>
+  <si>
+    <t>CH - 08</t>
+  </si>
+  <si>
+    <t>PHD - 06</t>
+  </si>
+  <si>
+    <t>KFC - 30</t>
+  </si>
+  <si>
+    <t>KFC - 31</t>
+  </si>
+  <si>
+    <t>PH - 43</t>
+  </si>
+  <si>
+    <t>KFC - 33</t>
+  </si>
+  <si>
+    <t>PB - 01</t>
+  </si>
+  <si>
+    <t>PH - 44</t>
+  </si>
+  <si>
+    <t>SBUX - 32</t>
+  </si>
+  <si>
+    <t>KFC - 34</t>
+  </si>
+  <si>
+    <t>KFC - 35</t>
+  </si>
+  <si>
+    <t>PH - 45</t>
+  </si>
+  <si>
+    <t>KFC - 36</t>
+  </si>
+  <si>
+    <t>KFC - 37</t>
+  </si>
+  <si>
+    <t>MT - 01</t>
+  </si>
+  <si>
+    <t>PB - 03</t>
+  </si>
+  <si>
+    <t>PB - 04</t>
+  </si>
+  <si>
+    <t>BK - 60</t>
+  </si>
+  <si>
+    <t>BK - 39</t>
+  </si>
+  <si>
+    <t>SBUX - 33</t>
+  </si>
+  <si>
+    <t>SBUX - 36</t>
+  </si>
+  <si>
+    <t>BK - 40</t>
+  </si>
+  <si>
+    <t>PHD - 08</t>
+  </si>
+  <si>
+    <t>KFC - 38</t>
+  </si>
+  <si>
+    <t>PHD - 09</t>
+  </si>
+  <si>
+    <t>PH - 46</t>
+  </si>
+  <si>
+    <t>KFC - 39</t>
+  </si>
+  <si>
+    <t>CH - 19</t>
+  </si>
+  <si>
+    <t>SBUX - 71</t>
+  </si>
+  <si>
+    <t>PHD - 10</t>
+  </si>
+  <si>
+    <t>PHD - 11</t>
+  </si>
+  <si>
+    <t>SBUX - 35</t>
+  </si>
+  <si>
+    <t>CH - 09</t>
+  </si>
+  <si>
+    <t>KFC - 40</t>
+  </si>
+  <si>
+    <t>BK - 42</t>
+  </si>
+  <si>
+    <t>PB - 20</t>
+  </si>
+  <si>
+    <t>KFC - 42</t>
+  </si>
+  <si>
+    <t>PB - 05</t>
+  </si>
+  <si>
+    <t>PHD - 12</t>
+  </si>
+  <si>
+    <t>KFC - 43</t>
+  </si>
+  <si>
+    <t>PH - 47</t>
+  </si>
+  <si>
+    <t>PHD - 13</t>
+  </si>
+  <si>
+    <t>SBUX - 37</t>
+  </si>
+  <si>
+    <t>BK - 22</t>
+  </si>
+  <si>
+    <t>KFC - 45</t>
+  </si>
+  <si>
+    <t>SBUX - 38</t>
+  </si>
+  <si>
+    <t>SBUX - 39</t>
+  </si>
+  <si>
+    <t>KFC - 46</t>
+  </si>
+  <si>
+    <t>PH - 48</t>
+  </si>
+  <si>
+    <t>SBUX - 40</t>
+  </si>
+  <si>
+    <t>SBUX - 41</t>
+  </si>
+  <si>
+    <t>PB - 07</t>
+  </si>
+  <si>
+    <t>KFC - 48</t>
+  </si>
+  <si>
+    <t>SBUX - 45</t>
+  </si>
+  <si>
+    <t>SBUX - 42</t>
+  </si>
+  <si>
+    <t>PH - 39</t>
+  </si>
+  <si>
+    <t>KFC - 49</t>
+  </si>
+  <si>
+    <t>PB - 09</t>
+  </si>
+  <si>
+    <t>BK - 44</t>
+  </si>
+  <si>
+    <t>BK - 45</t>
+  </si>
+  <si>
+    <t>BK - 46</t>
+  </si>
+  <si>
+    <t>PHD - 14</t>
+  </si>
+  <si>
+    <t>BK - 48</t>
+  </si>
+  <si>
+    <t>BK - 49</t>
+  </si>
+  <si>
+    <t>PH - 49</t>
+  </si>
+  <si>
+    <t>PH - 50</t>
+  </si>
+  <si>
+    <t>BK - 50</t>
+  </si>
+  <si>
+    <t>SBUX - 56</t>
+  </si>
+  <si>
+    <t>CH - 10</t>
+  </si>
+  <si>
+    <t>SBUX - 43</t>
+  </si>
+  <si>
+    <t>CH - 11</t>
+  </si>
+  <si>
+    <t>KFC - 50</t>
+  </si>
+  <si>
+    <t>KFC - 58</t>
+  </si>
+  <si>
+    <t>KFC - 51</t>
+  </si>
+  <si>
+    <t>PH - 52</t>
+  </si>
+  <si>
+    <t>PH - 53</t>
+  </si>
+  <si>
+    <t>SBUX - 44</t>
+  </si>
+  <si>
+    <t>CH - 12</t>
+  </si>
+  <si>
+    <t>KFC - 52</t>
+  </si>
+  <si>
+    <t>PHD - 15</t>
+  </si>
+  <si>
+    <t>KFC - 53</t>
+  </si>
+  <si>
+    <t>SBUX - 47</t>
+  </si>
+  <si>
+    <t>PH - 54</t>
+  </si>
+  <si>
+    <t>KFC - 55</t>
+  </si>
+  <si>
+    <t>KFC - 56</t>
+  </si>
+  <si>
+    <t>SBUX - 46</t>
+  </si>
+  <si>
+    <t>KFC - 57</t>
+  </si>
+  <si>
+    <t>PB - 11</t>
+  </si>
+  <si>
+    <t>SBUX - 50</t>
+  </si>
+  <si>
+    <t>SBUX - 48</t>
+  </si>
+  <si>
+    <t>KFC - 59</t>
+  </si>
+  <si>
+    <t>PB - 12</t>
+  </si>
+  <si>
+    <t>BK - 51</t>
+  </si>
+  <si>
+    <t>CH - 13</t>
+  </si>
+  <si>
+    <t>SBUX - 49</t>
+  </si>
+  <si>
+    <t>PB - 13</t>
+  </si>
+  <si>
+    <t>SBUX - 52</t>
+  </si>
+  <si>
+    <t>BK - 52</t>
+  </si>
+  <si>
+    <t>KFC - 60</t>
+  </si>
+  <si>
+    <t>KFC - 61</t>
+  </si>
+  <si>
+    <t>BK - 53</t>
+  </si>
+  <si>
+    <t>PH - 55</t>
+  </si>
+  <si>
+    <t>CH - 14</t>
+  </si>
+  <si>
+    <t>SBUX - 51</t>
+  </si>
+  <si>
+    <t>SBUX - 53</t>
+  </si>
+  <si>
+    <t>KFC - 62</t>
+  </si>
+  <si>
+    <t>BK - 54</t>
+  </si>
+  <si>
+    <t>PH - 56</t>
+  </si>
+  <si>
+    <t>PHD - 16</t>
+  </si>
+  <si>
+    <t>SBUX - 57</t>
+  </si>
+  <si>
+    <t>KFC - 63</t>
+  </si>
+  <si>
+    <t>PHD - 17</t>
+  </si>
+  <si>
+    <t>KFC - 64</t>
+  </si>
+  <si>
+    <t>KFC - 65</t>
+  </si>
+  <si>
+    <t>KFC - 66</t>
+  </si>
+  <si>
+    <t>SBUX - 54</t>
+  </si>
+  <si>
+    <t>BK - 55</t>
+  </si>
+  <si>
+    <t>PH - 57</t>
+  </si>
+  <si>
+    <t>SBUX - 55</t>
+  </si>
+  <si>
+    <t>KFC - 67</t>
+  </si>
+  <si>
+    <t>PH - 60</t>
+  </si>
+  <si>
+    <t>BK - 56</t>
+  </si>
+  <si>
+    <t>PH - 58</t>
+  </si>
+  <si>
+    <t>BK - 57</t>
+  </si>
+  <si>
+    <t>KFC - 68</t>
+  </si>
+  <si>
+    <t>KFC - 69</t>
+  </si>
+  <si>
+    <t>PH - 61</t>
+  </si>
+  <si>
+    <t>PHD - 18</t>
+  </si>
+  <si>
+    <t>KFC - 70</t>
+  </si>
+  <si>
+    <t>PB - 15</t>
+  </si>
+  <si>
+    <t>SBUX - 58</t>
+  </si>
+  <si>
+    <t>SBUX - 59</t>
+  </si>
+  <si>
+    <t>KFC - 72</t>
+  </si>
+  <si>
+    <t>PH - 59</t>
+  </si>
+  <si>
+    <t>KFC - 73</t>
+  </si>
+  <si>
+    <t>PHD - 19</t>
+  </si>
+  <si>
+    <t>CH - 16</t>
+  </si>
+  <si>
+    <t>BK - 58</t>
+  </si>
+  <si>
+    <t>PB - 16</t>
+  </si>
+  <si>
+    <t>PHD - 20</t>
+  </si>
+  <si>
+    <t>SBUX - 61</t>
+  </si>
+  <si>
+    <t>KFC - 74</t>
+  </si>
+  <si>
+    <t>SBUX - 60</t>
+  </si>
+  <si>
+    <t>SBUX - 62</t>
+  </si>
+  <si>
+    <t>KFC - 75</t>
+  </si>
+  <si>
+    <t>PH - 62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBUX - 64 </t>
+  </si>
+  <si>
+    <t>CH - 17</t>
+  </si>
+  <si>
+    <t>BK - 14</t>
+  </si>
+  <si>
+    <t>PHD - 21</t>
+  </si>
+  <si>
+    <t>SBUX - 65</t>
+  </si>
+  <si>
+    <t>KFC - 76</t>
+  </si>
+  <si>
+    <t>SBUX - 66</t>
+  </si>
+  <si>
+    <t>PHD - 22</t>
+  </si>
+  <si>
+    <t>SBUX - 67</t>
+  </si>
+  <si>
+    <t>PB - 17</t>
+  </si>
+  <si>
+    <t>PH - 20</t>
+  </si>
+  <si>
+    <t>BK - 59</t>
+  </si>
+  <si>
+    <t>SBUX - 68</t>
+  </si>
+  <si>
+    <t>PB - 18</t>
+  </si>
+  <si>
+    <t>KFC - 77</t>
+  </si>
+  <si>
+    <t>SBUX - 70</t>
+  </si>
+  <si>
+    <t>KFC - 79</t>
+  </si>
+  <si>
+    <t>KFC - 80</t>
+  </si>
+  <si>
+    <t>BK - 61</t>
+  </si>
+  <si>
+    <t>KFC - 81</t>
+  </si>
+  <si>
+    <t>SBUX - 34</t>
+  </si>
+  <si>
+    <t>PB - 06</t>
+  </si>
+  <si>
+    <t>PHD - 23</t>
+  </si>
+  <si>
+    <t>SBUX - 69</t>
+  </si>
+  <si>
+    <t>KFC - 82</t>
+  </si>
+  <si>
+    <t>KFC - 83</t>
+  </si>
+  <si>
+    <t>KFC - 84</t>
+  </si>
+  <si>
+    <t>KFC - 85</t>
+  </si>
+  <si>
+    <t>SBUX - 74</t>
+  </si>
+  <si>
+    <t>PH - 65</t>
+  </si>
+  <si>
+    <t>KFC - 86</t>
+  </si>
+  <si>
+    <t>PH - 63</t>
+  </si>
+  <si>
+    <t>SBUX - 72</t>
+  </si>
+  <si>
+    <t>PB - 19</t>
+  </si>
+  <si>
+    <t>BK - 64</t>
+  </si>
+  <si>
+    <t>SBUX - 75</t>
+  </si>
+  <si>
+    <t>SBUX - 73</t>
+  </si>
+  <si>
+    <t>BK - 65</t>
+  </si>
+  <si>
+    <t>KFC - 87</t>
+  </si>
+  <si>
+    <t>KFC - 88</t>
+  </si>
+  <si>
+    <t>PH - 64</t>
+  </si>
+  <si>
+    <t>MT - 02</t>
+  </si>
+  <si>
+    <t>KFC - 89</t>
+  </si>
+  <si>
+    <t>MT - 03</t>
+  </si>
+  <si>
+    <t>CH - 20</t>
+  </si>
+  <si>
+    <t>KFC - 90</t>
+  </si>
+  <si>
+    <t>KFC - 91</t>
+  </si>
+  <si>
+    <t>SBUX - 79</t>
+  </si>
+  <si>
+    <t>KFC - 92</t>
+  </si>
+  <si>
+    <t>SBUX - 77</t>
+  </si>
+  <si>
+    <t>SBUX - 22</t>
+  </si>
+  <si>
+    <t>CH - 21</t>
+  </si>
+  <si>
+    <t>BK - 66</t>
+  </si>
+  <si>
+    <t>SBUX - 78</t>
+  </si>
+  <si>
+    <t>KFC - 93</t>
+  </si>
+  <si>
+    <t>PH - 66</t>
+  </si>
+  <si>
+    <t>BK - 67</t>
+  </si>
+  <si>
+    <t>SBUX - 81</t>
+  </si>
+  <si>
+    <t>PB - 21</t>
+  </si>
+  <si>
+    <t>BK - 69</t>
+  </si>
+  <si>
+    <t>CH - 22</t>
+  </si>
+  <si>
+    <t>SBUX - 80</t>
+  </si>
+  <si>
+    <t>PB - 23</t>
+  </si>
+  <si>
+    <t>CH - 23</t>
+  </si>
+  <si>
+    <t>KFC - 94</t>
+  </si>
+  <si>
+    <t>PHD - 24</t>
+  </si>
+  <si>
+    <t>SBUX - 82</t>
+  </si>
+  <si>
+    <t>SBUX - 83</t>
+  </si>
+  <si>
+    <t>SBUX - 84</t>
+  </si>
+  <si>
+    <t>SBUX - 85</t>
+  </si>
+  <si>
+    <t>SBUX - 86</t>
+  </si>
+  <si>
+    <t>SBUX - 87</t>
+  </si>
+  <si>
+    <t>KFC - 95</t>
+  </si>
+  <si>
+    <t>PH - 67</t>
+  </si>
+  <si>
+    <t>SBUX - 88</t>
+  </si>
+  <si>
+    <t>KFC - 96</t>
+  </si>
+  <si>
+    <t>PH - 35</t>
+  </si>
+  <si>
+    <t>KFC - 97</t>
+  </si>
+  <si>
+    <t>CH - 24</t>
+  </si>
+  <si>
+    <t>SBUX - 90</t>
+  </si>
+  <si>
+    <t>KFC - 99</t>
+  </si>
+  <si>
+    <t>PHD - 25</t>
+  </si>
+  <si>
+    <t>KFC - 135</t>
+  </si>
+  <si>
+    <t>SBUX - 93</t>
+  </si>
+  <si>
+    <t>KFC - 132</t>
+  </si>
+  <si>
+    <t>PH - 72</t>
+  </si>
+  <si>
+    <t>BK - 70</t>
+  </si>
+  <si>
+    <t>PH - 69</t>
+  </si>
+  <si>
+    <t>CH - 26</t>
+  </si>
+  <si>
+    <t>PB - 24</t>
+  </si>
+  <si>
+    <t>KFC - 134</t>
+  </si>
+  <si>
+    <t>SBUX - 92</t>
+  </si>
+  <si>
+    <t>SBUX - 96</t>
+  </si>
+  <si>
+    <t>SBUX - 100</t>
+  </si>
+  <si>
+    <t>CH - 25</t>
+  </si>
+  <si>
+    <t>KFC - 131</t>
+  </si>
+  <si>
+    <t>PH - 68</t>
+  </si>
+  <si>
+    <t>KFC - 129</t>
+  </si>
+  <si>
+    <t>KFC - 133</t>
+  </si>
+  <si>
+    <t>SBUX - 95</t>
+  </si>
+  <si>
+    <t>KFC - 124</t>
+  </si>
+  <si>
+    <t>KFC - 130</t>
+  </si>
+  <si>
+    <t>SBUX - 98</t>
+  </si>
+  <si>
+    <t>CALL CENTER</t>
+  </si>
+  <si>
+    <t>CAR</t>
+  </si>
+  <si>
+    <t>CAR1</t>
+  </si>
+  <si>
+    <t>CAR4</t>
+  </si>
+  <si>
+    <t>COCINA CENTRAL</t>
+  </si>
+  <si>
+    <t>CONTACT CENTER</t>
+  </si>
+  <si>
+    <t>DELPROP</t>
+  </si>
+  <si>
+    <t>EN FUNCION DE LAS VE</t>
+  </si>
+  <si>
+    <t>EN PARTES IGUALES</t>
+  </si>
+  <si>
+    <t>GERENCIA CORPORATIVA</t>
+  </si>
+  <si>
+    <t>GERENCIA GENERAL</t>
+  </si>
+  <si>
+    <t>MAD SCIENCE</t>
+  </si>
+  <si>
+    <t>MANTENIMIENTO</t>
+  </si>
+  <si>
+    <t>OPERACIONES SB</t>
+  </si>
+  <si>
+    <t>PH - ENTRENAMIENTO GERENCIA</t>
+  </si>
+  <si>
+    <t>PLANTA</t>
+  </si>
+  <si>
+    <t>SB - ENTRENAMIENTO GERENCIA</t>
+  </si>
+  <si>
+    <t>SOPORTE CCAQP</t>
+  </si>
+  <si>
+    <t>SOPORTE CCCHM</t>
+  </si>
+  <si>
+    <t>SOPORTE CCCJA</t>
+  </si>
+  <si>
+    <t>SOPORTE CCHUA</t>
+  </si>
+  <si>
+    <t>SOPORTE CCHYO</t>
+  </si>
+  <si>
+    <t>SOPORTE CCICA</t>
+  </si>
+  <si>
+    <t>VEGETALES</t>
+  </si>
+  <si>
+    <t>BK - 71</t>
+  </si>
+  <si>
+    <t>LINEA MASA PAN</t>
+  </si>
+  <si>
+    <t>OPERACIONES PLANTA</t>
+  </si>
+  <si>
+    <t>RANSA FRIO</t>
+  </si>
+  <si>
+    <t>CH - 27</t>
+  </si>
+  <si>
+    <t>KFC - 128</t>
+  </si>
+  <si>
+    <t>KFC - 136</t>
+  </si>
+  <si>
+    <t>OG - 01</t>
+  </si>
+  <si>
+    <t>PH - 71</t>
+  </si>
+  <si>
+    <t>PH - 73</t>
+  </si>
+  <si>
+    <t>CAR2</t>
+  </si>
+  <si>
+    <t>PH - PR</t>
+  </si>
+  <si>
+    <t>SBUX - 101</t>
+  </si>
+  <si>
+    <t>PHD - 26</t>
+  </si>
+  <si>
+    <t>SBUX - 94</t>
+  </si>
+  <si>
+    <t>SBUX - 99</t>
+  </si>
+  <si>
+    <t>SBUX - 97</t>
+  </si>
+  <si>
+    <t>KFC - 127</t>
+  </si>
+  <si>
+    <t>KFC - 137</t>
+  </si>
+  <si>
+    <t>SBUX - 91</t>
+  </si>
+  <si>
+    <t>SBUX - 105</t>
+  </si>
+  <si>
+    <t>SBUX - 106</t>
+  </si>
+  <si>
+    <t>PH - 74</t>
+  </si>
+  <si>
+    <t>MT - 04</t>
+  </si>
+  <si>
+    <t>EN FUN</t>
+  </si>
+  <si>
+    <t>BK - 72</t>
+  </si>
+  <si>
+    <t>SBUX - 102</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>KFC - ENT</t>
+  </si>
+  <si>
+    <t>CH - ENT</t>
+  </si>
+  <si>
+    <t>PB - ENT</t>
+  </si>
+  <si>
+    <t>BK - ENT</t>
+  </si>
+  <si>
+    <t>PHD - ENT</t>
+  </si>
+  <si>
+    <t>PB - 02</t>
+  </si>
+  <si>
+    <t>KFC-03</t>
+  </si>
+  <si>
+    <t>KFC-04</t>
+  </si>
+  <si>
+    <t>PH-01</t>
+  </si>
+  <si>
+    <t>KFC-05</t>
+  </si>
+  <si>
+    <t>KFC-06</t>
+  </si>
+  <si>
+    <t>PH-02</t>
+  </si>
+  <si>
+    <t>KFC-07</t>
+  </si>
+  <si>
+    <t>PH-03</t>
+  </si>
+  <si>
+    <t>KFC-08</t>
+  </si>
+  <si>
+    <t>BK-01</t>
+  </si>
+  <si>
+    <t>KFC-09</t>
+  </si>
+  <si>
+    <t>BK-02</t>
+  </si>
+  <si>
+    <t>PH-04</t>
+  </si>
+  <si>
+    <t>PH-05</t>
+  </si>
+  <si>
+    <t>KFC-10</t>
+  </si>
+  <si>
+    <t>PH-06</t>
+  </si>
+  <si>
+    <t>BK-04</t>
+  </si>
+  <si>
+    <t>PH-07</t>
+  </si>
+  <si>
+    <t>BK-07</t>
+  </si>
+  <si>
+    <t>BK-08</t>
+  </si>
+  <si>
+    <t>KFC-101</t>
+  </si>
+  <si>
+    <t>KFC-102</t>
+  </si>
+  <si>
+    <t>BK-10</t>
+  </si>
+  <si>
+    <t>BK-12</t>
+  </si>
+  <si>
+    <t>KFC-103</t>
+  </si>
+  <si>
+    <t>PH-09</t>
+  </si>
+  <si>
+    <t>KFC-105</t>
+  </si>
+  <si>
+    <t>CH-01</t>
+  </si>
+  <si>
+    <t>BK-35</t>
+  </si>
+  <si>
+    <t>KFC-106</t>
+  </si>
+  <si>
+    <t>KFC-107</t>
+  </si>
+  <si>
+    <t>PH-12</t>
+  </si>
+  <si>
+    <t>BK-15</t>
+  </si>
+  <si>
+    <t>BK-63</t>
+  </si>
+  <si>
+    <t>PH-13</t>
+  </si>
+  <si>
+    <t>BK-38</t>
+  </si>
+  <si>
+    <t>PH-14</t>
+  </si>
+  <si>
+    <t>KFC-108</t>
+  </si>
+  <si>
+    <t>CH-02</t>
+  </si>
+  <si>
+    <t>BK-62</t>
+  </si>
+  <si>
+    <t>BK-41</t>
+  </si>
+  <si>
+    <t>KFC-109</t>
+  </si>
+  <si>
+    <t>KFC-11</t>
+  </si>
+  <si>
+    <t>SBUX-89</t>
+  </si>
+  <si>
+    <t>PH-15</t>
+  </si>
+  <si>
+    <t>PH-16</t>
+  </si>
+  <si>
+    <t>KFC-110</t>
+  </si>
+  <si>
+    <t>KFC-111</t>
+  </si>
+  <si>
+    <t>KFC-112</t>
+  </si>
+  <si>
+    <t>PH-17</t>
+  </si>
+  <si>
+    <t>KFC-113</t>
+  </si>
+  <si>
+    <t>PH-18</t>
+  </si>
+  <si>
+    <t>KFC-114</t>
+  </si>
+  <si>
+    <t>KFC-115</t>
+  </si>
+  <si>
+    <t>PH-19</t>
+  </si>
+  <si>
+    <t>KFC-116</t>
+  </si>
+  <si>
+    <t>KFC-117</t>
+  </si>
+  <si>
+    <t>KFC-118</t>
+  </si>
+  <si>
+    <t>PH-21</t>
+  </si>
+  <si>
+    <t>BK-17</t>
+  </si>
+  <si>
+    <t>KFC-119</t>
+  </si>
+  <si>
+    <t>SBUX-01</t>
+  </si>
+  <si>
+    <t>SBUX-03</t>
+  </si>
+  <si>
+    <t>PH-23</t>
+  </si>
+  <si>
+    <t>SBUX-02</t>
+  </si>
+  <si>
+    <t>SBUX-04</t>
+  </si>
+  <si>
+    <t>SBUX-06</t>
+  </si>
+  <si>
+    <t>SBUX-76</t>
+  </si>
+  <si>
+    <t>PH-24</t>
+  </si>
+  <si>
+    <t>KFC-120</t>
+  </si>
+  <si>
+    <t>PH-25</t>
+  </si>
+  <si>
+    <t>SBUX-05</t>
+  </si>
+  <si>
+    <t>BK-18</t>
+  </si>
+  <si>
+    <t>PH-26</t>
+  </si>
+  <si>
+    <t>KFC-121</t>
+  </si>
+  <si>
+    <t>PH-27</t>
+  </si>
+  <si>
+    <t>CH-03</t>
+  </si>
+  <si>
+    <t>SBUX-07</t>
+  </si>
+  <si>
+    <t>KFC-122</t>
+  </si>
+  <si>
+    <t>SBUX-09</t>
+  </si>
+  <si>
+    <t>KFC-123</t>
+  </si>
+  <si>
+    <t>KFC-125</t>
+  </si>
+  <si>
+    <t>KFC-126</t>
+  </si>
+  <si>
+    <t>PH-28</t>
+  </si>
+  <si>
+    <t>SBUX-10</t>
+  </si>
+  <si>
+    <t>PH-29</t>
+  </si>
+  <si>
+    <t>CH-04</t>
+  </si>
+  <si>
+    <t>BK-24</t>
+  </si>
+  <si>
+    <t>SBUX-11</t>
+  </si>
+  <si>
+    <t>SBUX-12</t>
+  </si>
+  <si>
+    <t>SBUX-14</t>
+  </si>
+  <si>
+    <t>KFC-14</t>
+  </si>
+  <si>
+    <t>SBUX-13</t>
+  </si>
+  <si>
+    <t>SBUX-15</t>
+  </si>
+  <si>
+    <t>KFC-15</t>
+  </si>
+  <si>
+    <t>SBUX-16</t>
+  </si>
+  <si>
+    <t>CH-05</t>
+  </si>
+  <si>
+    <t>SBUX-19</t>
+  </si>
+  <si>
+    <t>KFC-17</t>
+  </si>
+  <si>
+    <t>KFC-18</t>
+  </si>
+  <si>
+    <t>KFC-19</t>
+  </si>
+  <si>
+    <t>SBUX-28</t>
+  </si>
+  <si>
+    <t>SBUX-17</t>
+  </si>
+  <si>
+    <t>SBUX-21</t>
+  </si>
+  <si>
+    <t>SBUX-20</t>
+  </si>
+  <si>
+    <t>SBUX-27</t>
+  </si>
+  <si>
+    <t>PH-41</t>
+  </si>
+  <si>
+    <t>KFC-20</t>
+  </si>
+  <si>
+    <t>PB-08</t>
+  </si>
+  <si>
+    <t>BK-23</t>
+  </si>
+  <si>
+    <t>PH-33</t>
+  </si>
+  <si>
+    <t>KFC-21</t>
+  </si>
+  <si>
+    <t>KFC-22</t>
+  </si>
+  <si>
+    <t>SBUX-23</t>
+  </si>
+  <si>
+    <t>KFC-23</t>
+  </si>
+  <si>
+    <t>CH-06</t>
+  </si>
+  <si>
+    <t>KFC-24</t>
+  </si>
+  <si>
+    <t>CH-07</t>
+  </si>
+  <si>
+    <t>CH-15</t>
+  </si>
+  <si>
+    <t>SBUX-25</t>
+  </si>
+  <si>
+    <t>KFC-25</t>
+  </si>
+  <si>
+    <t>BK-25</t>
+  </si>
+  <si>
+    <t>SBUX-26</t>
+  </si>
+  <si>
+    <t>BK-26</t>
+  </si>
+  <si>
+    <t>SBUX-63</t>
+  </si>
+  <si>
+    <t>PH-36</t>
+  </si>
+  <si>
+    <t>PHD-01</t>
+  </si>
+  <si>
+    <t>KFC-26</t>
+  </si>
+  <si>
+    <t>PH-37</t>
+  </si>
+  <si>
+    <t>PHD-02</t>
+  </si>
+  <si>
+    <t>KFC-27</t>
+  </si>
+  <si>
+    <t>PHD-03</t>
+  </si>
+  <si>
+    <t>BK-27</t>
+  </si>
+  <si>
+    <t>PHD-04</t>
+  </si>
+  <si>
+    <t>KFC-28</t>
+  </si>
+  <si>
+    <t>KFC-29</t>
+  </si>
+  <si>
+    <t>CH-18</t>
+  </si>
+  <si>
+    <t>SBUX-30</t>
+  </si>
+  <si>
+    <t>PH-30</t>
+  </si>
+  <si>
+    <t>BK-28</t>
+  </si>
+  <si>
+    <t>PHD-05</t>
+  </si>
+  <si>
+    <t>PH-40</t>
+  </si>
+  <si>
+    <t>BK-31</t>
+  </si>
+  <si>
+    <t>SBUX-29</t>
+  </si>
+  <si>
+    <t>SBUX-24</t>
+  </si>
+  <si>
+    <t>BK-32</t>
+  </si>
+  <si>
+    <t>PH-42</t>
+  </si>
+  <si>
+    <t>BK-33</t>
+  </si>
+  <si>
+    <t>CH-08</t>
+  </si>
+  <si>
+    <t>PHD-06</t>
+  </si>
+  <si>
+    <t>KFC-30</t>
+  </si>
+  <si>
+    <t>KFC-31</t>
+  </si>
+  <si>
+    <t>PH-43</t>
+  </si>
+  <si>
+    <t>KFC-33</t>
+  </si>
+  <si>
+    <t>PB-01</t>
+  </si>
+  <si>
+    <t>PH-44</t>
+  </si>
+  <si>
+    <t>SBUX-32</t>
+  </si>
+  <si>
+    <t>KFC-34</t>
+  </si>
+  <si>
+    <t>KFC-35</t>
+  </si>
+  <si>
+    <t>PH-45</t>
+  </si>
+  <si>
+    <t>KFC-36</t>
+  </si>
+  <si>
+    <t>KFC-37</t>
+  </si>
+  <si>
+    <t>MT-01</t>
+  </si>
+  <si>
+    <t>PB-03</t>
+  </si>
+  <si>
+    <t>PB-04</t>
+  </si>
+  <si>
+    <t>BK-60</t>
+  </si>
+  <si>
+    <t>BK-39</t>
+  </si>
+  <si>
+    <t>SBUX-33</t>
+  </si>
+  <si>
+    <t>SBUX-36</t>
+  </si>
+  <si>
+    <t>BK-40</t>
+  </si>
+  <si>
+    <t>PHD-08</t>
+  </si>
+  <si>
+    <t>KFC-38</t>
+  </si>
+  <si>
+    <t>PHD-09</t>
+  </si>
+  <si>
+    <t>PH-46</t>
+  </si>
+  <si>
+    <t>KFC-39</t>
+  </si>
+  <si>
+    <t>CH-19</t>
+  </si>
+  <si>
+    <t>SBUX-71</t>
+  </si>
+  <si>
+    <t>PHD-10</t>
+  </si>
+  <si>
+    <t>PHD-11</t>
+  </si>
+  <si>
+    <t>SBUX-35</t>
+  </si>
+  <si>
+    <t>CH-09</t>
+  </si>
+  <si>
+    <t>KFC-40</t>
+  </si>
+  <si>
+    <t>BK-42</t>
+  </si>
+  <si>
+    <t>PB-20</t>
+  </si>
+  <si>
+    <t>KFC-42</t>
+  </si>
+  <si>
+    <t>PB-05</t>
+  </si>
+  <si>
+    <t>PHD-12</t>
+  </si>
+  <si>
+    <t>KFC-43</t>
+  </si>
+  <si>
+    <t>PH-47</t>
+  </si>
+  <si>
+    <t>PHD-13</t>
+  </si>
+  <si>
+    <t>SBUX-37</t>
+  </si>
+  <si>
+    <t>BK-22</t>
+  </si>
+  <si>
+    <t>KFC-45</t>
+  </si>
+  <si>
+    <t>SBUX-38</t>
+  </si>
+  <si>
+    <t>SBUX-39</t>
+  </si>
+  <si>
+    <t>KFC-46</t>
+  </si>
+  <si>
+    <t>PH-48</t>
+  </si>
+  <si>
+    <t>SBUX-40</t>
+  </si>
+  <si>
+    <t>SBUX-41</t>
+  </si>
+  <si>
+    <t>PB-07</t>
+  </si>
+  <si>
+    <t>KFC-48</t>
+  </si>
+  <si>
+    <t>SBUX-45</t>
+  </si>
+  <si>
+    <t>SBUX-42</t>
+  </si>
+  <si>
+    <t>PH-39</t>
+  </si>
+  <si>
+    <t>KFC-49</t>
+  </si>
+  <si>
+    <t>PB-09</t>
+  </si>
+  <si>
+    <t>BK-44</t>
+  </si>
+  <si>
+    <t>BK-45</t>
+  </si>
+  <si>
+    <t>BK-46</t>
+  </si>
+  <si>
+    <t>PHD-14</t>
+  </si>
+  <si>
+    <t>BK-48</t>
+  </si>
+  <si>
+    <t>BK-49</t>
+  </si>
+  <si>
+    <t>PH-49</t>
+  </si>
+  <si>
+    <t>PH-50</t>
+  </si>
+  <si>
+    <t>BK-50</t>
+  </si>
+  <si>
+    <t>SBUX-56</t>
+  </si>
+  <si>
+    <t>CH-10</t>
+  </si>
+  <si>
+    <t>SBUX-43</t>
+  </si>
+  <si>
+    <t>CH-11</t>
+  </si>
+  <si>
+    <t>KFC-50</t>
+  </si>
+  <si>
+    <t>KFC-58</t>
+  </si>
+  <si>
+    <t>KFC-51</t>
+  </si>
+  <si>
+    <t>PH-52</t>
+  </si>
+  <si>
+    <t>PH-53</t>
+  </si>
+  <si>
+    <t>SBUX-44</t>
+  </si>
+  <si>
+    <t>CH-12</t>
+  </si>
+  <si>
+    <t>KFC-52</t>
+  </si>
+  <si>
+    <t>PHD-15</t>
+  </si>
+  <si>
+    <t>KFC-53</t>
+  </si>
+  <si>
+    <t>SBUX-47</t>
+  </si>
+  <si>
+    <t>PH-54</t>
+  </si>
+  <si>
+    <t>KFC-55</t>
+  </si>
+  <si>
+    <t>KFC-56</t>
+  </si>
+  <si>
+    <t>SBUX-46</t>
+  </si>
+  <si>
+    <t>KFC-57</t>
+  </si>
+  <si>
+    <t>PB-11</t>
+  </si>
+  <si>
+    <t>SBUX-50</t>
+  </si>
+  <si>
+    <t>SBUX-48</t>
+  </si>
+  <si>
+    <t>KFC-59</t>
+  </si>
+  <si>
+    <t>PB-12</t>
+  </si>
+  <si>
+    <t>BK-51</t>
+  </si>
+  <si>
+    <t>CH-13</t>
+  </si>
+  <si>
+    <t>SBUX-49</t>
+  </si>
+  <si>
+    <t>PB-13</t>
+  </si>
+  <si>
+    <t>SBUX-52</t>
+  </si>
+  <si>
+    <t>BK-52</t>
+  </si>
+  <si>
+    <t>KFC-60</t>
+  </si>
+  <si>
+    <t>KFC-61</t>
+  </si>
+  <si>
+    <t>BK-53</t>
+  </si>
+  <si>
+    <t>PH-55</t>
+  </si>
+  <si>
+    <t>CH-14</t>
+  </si>
+  <si>
+    <t>SBUX-51</t>
+  </si>
+  <si>
+    <t>SBUX-53</t>
+  </si>
+  <si>
+    <t>KFC-62</t>
+  </si>
+  <si>
+    <t>BK-54</t>
+  </si>
+  <si>
+    <t>PH-56</t>
+  </si>
+  <si>
+    <t>PHD-16</t>
+  </si>
+  <si>
+    <t>SBUX-57</t>
+  </si>
+  <si>
+    <t>KFC-63</t>
+  </si>
+  <si>
+    <t>PHD-17</t>
+  </si>
+  <si>
+    <t>KFC-64</t>
+  </si>
+  <si>
+    <t>KFC-65</t>
+  </si>
+  <si>
+    <t>KFC-66</t>
+  </si>
+  <si>
+    <t>SBUX-54</t>
+  </si>
+  <si>
+    <t>BK-55</t>
+  </si>
+  <si>
+    <t>PH-57</t>
+  </si>
+  <si>
+    <t>SBUX-55</t>
+  </si>
+  <si>
+    <t>KFC-67</t>
+  </si>
+  <si>
+    <t>PH-60</t>
+  </si>
+  <si>
+    <t>BK-56</t>
+  </si>
+  <si>
+    <t>PH-58</t>
+  </si>
+  <si>
+    <t>BK-57</t>
+  </si>
+  <si>
+    <t>KFC-68</t>
+  </si>
+  <si>
+    <t>KFC-69</t>
+  </si>
+  <si>
+    <t>PH-61</t>
+  </si>
+  <si>
+    <t>PHD-18</t>
+  </si>
+  <si>
+    <t>KFC-70</t>
+  </si>
+  <si>
+    <t>PB-15</t>
+  </si>
+  <si>
+    <t>SBUX-58</t>
+  </si>
+  <si>
+    <t>SBUX-59</t>
+  </si>
+  <si>
+    <t>KFC-72</t>
+  </si>
+  <si>
+    <t>PH-59</t>
+  </si>
+  <si>
+    <t>KFC-73</t>
+  </si>
+  <si>
+    <t>PHD-19</t>
+  </si>
+  <si>
+    <t>CH-16</t>
+  </si>
+  <si>
+    <t>BK-58</t>
+  </si>
+  <si>
+    <t>PB-16</t>
+  </si>
+  <si>
+    <t>PHD-20</t>
+  </si>
+  <si>
+    <t>SBUX-61</t>
+  </si>
+  <si>
+    <t>KFC-74</t>
+  </si>
+  <si>
+    <t>SBUX-60</t>
+  </si>
+  <si>
+    <t>SBUX-62</t>
+  </si>
+  <si>
+    <t>KFC-75</t>
+  </si>
+  <si>
+    <t>PH-62</t>
+  </si>
+  <si>
+    <t>SBUX-64</t>
+  </si>
+  <si>
+    <t>CH-17</t>
+  </si>
+  <si>
+    <t>BK-14</t>
+  </si>
+  <si>
+    <t>PHD-21</t>
+  </si>
+  <si>
+    <t>SBUX-65</t>
+  </si>
+  <si>
+    <t>KFC-76</t>
+  </si>
+  <si>
+    <t>SBUX-66</t>
+  </si>
+  <si>
+    <t>PHD-22</t>
+  </si>
+  <si>
+    <t>SBUX-67</t>
+  </si>
+  <si>
+    <t>PB-17</t>
+  </si>
+  <si>
+    <t>PH-20</t>
+  </si>
+  <si>
+    <t>BK-59</t>
+  </si>
+  <si>
+    <t>SBUX-68</t>
+  </si>
+  <si>
+    <t>PB-18</t>
+  </si>
+  <si>
+    <t>KFC-77</t>
+  </si>
+  <si>
+    <t>SBUX-70</t>
+  </si>
+  <si>
+    <t>KFC-79</t>
+  </si>
+  <si>
+    <t>KFC-80</t>
+  </si>
+  <si>
+    <t>BK-61</t>
+  </si>
+  <si>
+    <t>KFC-81</t>
+  </si>
+  <si>
+    <t>SBUX-34</t>
+  </si>
+  <si>
+    <t>PB-06</t>
+  </si>
+  <si>
+    <t>PHD-23</t>
+  </si>
+  <si>
+    <t>SBUX-69</t>
+  </si>
+  <si>
+    <t>KFC-82</t>
+  </si>
+  <si>
+    <t>KFC-83</t>
+  </si>
+  <si>
+    <t>KFC-84</t>
+  </si>
+  <si>
+    <t>KFC-85</t>
+  </si>
+  <si>
+    <t>SBUX-74</t>
+  </si>
+  <si>
+    <t>PH-65</t>
+  </si>
+  <si>
+    <t>KFC-86</t>
+  </si>
+  <si>
+    <t>PH-63</t>
+  </si>
+  <si>
+    <t>SBUX-72</t>
+  </si>
+  <si>
+    <t>PB-19</t>
+  </si>
+  <si>
+    <t>BK-64</t>
+  </si>
+  <si>
+    <t>SBUX-75</t>
+  </si>
+  <si>
+    <t>SBUX-73</t>
+  </si>
+  <si>
+    <t>BK-65</t>
+  </si>
+  <si>
+    <t>KFC-87</t>
+  </si>
+  <si>
+    <t>KFC-88</t>
+  </si>
+  <si>
+    <t>PH-64</t>
+  </si>
+  <si>
+    <t>MT-02</t>
+  </si>
+  <si>
+    <t>KFC-89</t>
+  </si>
+  <si>
+    <t>MT-03</t>
+  </si>
+  <si>
+    <t>CH-20</t>
+  </si>
+  <si>
+    <t>KFC-90</t>
+  </si>
+  <si>
+    <t>KFC-91</t>
+  </si>
+  <si>
+    <t>SBUX-79</t>
+  </si>
+  <si>
+    <t>KFC-92</t>
+  </si>
+  <si>
+    <t>SBUX-77</t>
+  </si>
+  <si>
+    <t>SBUX-22</t>
+  </si>
+  <si>
+    <t>CH-21</t>
+  </si>
+  <si>
+    <t>BK-66</t>
+  </si>
+  <si>
+    <t>SBUX-78</t>
+  </si>
+  <si>
+    <t>KFC-93</t>
+  </si>
+  <si>
+    <t>PH-66</t>
+  </si>
+  <si>
+    <t>BK-67</t>
+  </si>
+  <si>
+    <t>SBUX-81</t>
+  </si>
+  <si>
+    <t>PB-21</t>
+  </si>
+  <si>
+    <t>BK-69</t>
+  </si>
+  <si>
+    <t>CH-22</t>
+  </si>
+  <si>
+    <t>SBUX-80</t>
+  </si>
+  <si>
+    <t>PB-23</t>
+  </si>
+  <si>
+    <t>CH-23</t>
+  </si>
+  <si>
+    <t>KFC-94</t>
+  </si>
+  <si>
+    <t>PHD-24</t>
+  </si>
+  <si>
+    <t>SBUX-82</t>
+  </si>
+  <si>
+    <t>SBUX-83</t>
+  </si>
+  <si>
+    <t>SBUX-84</t>
+  </si>
+  <si>
+    <t>SBUX-85</t>
+  </si>
+  <si>
+    <t>SBUX-86</t>
+  </si>
+  <si>
+    <t>SBUX-87</t>
+  </si>
+  <si>
+    <t>KFC-95</t>
+  </si>
+  <si>
+    <t>PH-67</t>
+  </si>
+  <si>
+    <t>SBUX-88</t>
+  </si>
+  <si>
+    <t>KFC-96</t>
+  </si>
+  <si>
+    <t>PH-35</t>
+  </si>
+  <si>
+    <t>KFC-97</t>
+  </si>
+  <si>
+    <t>CH-24</t>
+  </si>
+  <si>
+    <t>SBUX-90</t>
+  </si>
+  <si>
+    <t>KFC-99</t>
+  </si>
+  <si>
+    <t>PHD-25</t>
+  </si>
+  <si>
+    <t>KFC-135</t>
+  </si>
+  <si>
+    <t>SBUX-93</t>
+  </si>
+  <si>
+    <t>KFC-132</t>
+  </si>
+  <si>
+    <t>PH-72</t>
+  </si>
+  <si>
+    <t>BK-70</t>
+  </si>
+  <si>
+    <t>PH-69</t>
+  </si>
+  <si>
+    <t>CH-26</t>
+  </si>
+  <si>
+    <t>PB-24</t>
+  </si>
+  <si>
+    <t>KFC-134</t>
+  </si>
+  <si>
+    <t>SBUX-92</t>
+  </si>
+  <si>
+    <t>SBUX-96</t>
+  </si>
+  <si>
+    <t>SBUX-100</t>
+  </si>
+  <si>
+    <t>CH-25</t>
+  </si>
+  <si>
+    <t>KFC-131</t>
+  </si>
+  <si>
+    <t>PH-68</t>
+  </si>
+  <si>
+    <t>KFC-129</t>
+  </si>
+  <si>
+    <t>KFC-133</t>
+  </si>
+  <si>
+    <t>SBUX-95</t>
+  </si>
+  <si>
+    <t>KFC-124</t>
+  </si>
+  <si>
+    <t>KFC-130</t>
+  </si>
+  <si>
+    <t>SBUX-98</t>
+  </si>
+  <si>
+    <t>PH-ENTRENAMIENTO GERENCIA</t>
+  </si>
+  <si>
+    <t>SB-ENTRENAMIENTO GERENCIA</t>
+  </si>
+  <si>
+    <t>BK-71</t>
+  </si>
+  <si>
+    <t>CH-27</t>
+  </si>
+  <si>
+    <t>KFC-128</t>
+  </si>
+  <si>
+    <t>KFC-136</t>
+  </si>
+  <si>
+    <t>OG-01</t>
+  </si>
+  <si>
+    <t>PH-71</t>
+  </si>
+  <si>
+    <t>PH-73</t>
+  </si>
+  <si>
+    <t>PH-PR</t>
+  </si>
+  <si>
+    <t>SBUX-101</t>
+  </si>
+  <si>
+    <t>PHD-26</t>
+  </si>
+  <si>
+    <t>SBUX-94</t>
+  </si>
+  <si>
+    <t>SBUX-99</t>
+  </si>
+  <si>
+    <t>SBUX-97</t>
+  </si>
+  <si>
+    <t>KFC-127</t>
+  </si>
+  <si>
+    <t>KFC-137</t>
+  </si>
+  <si>
+    <t>SBUX-91</t>
+  </si>
+  <si>
+    <t>SBUX-105</t>
+  </si>
+  <si>
+    <t>SBUX-106</t>
+  </si>
+  <si>
+    <t>PH-74</t>
+  </si>
+  <si>
+    <t>MT-04</t>
+  </si>
+  <si>
+    <t>BK-72</t>
+  </si>
+  <si>
+    <t>SBUX-102</t>
+  </si>
+  <si>
+    <t>KFC-ENT</t>
+  </si>
+  <si>
+    <t>CH-ENT</t>
+  </si>
+  <si>
+    <t>PB-ENT</t>
+  </si>
+  <si>
+    <t>BK-ENT</t>
+  </si>
+  <si>
+    <t>PHD-ENT</t>
+  </si>
+  <si>
+    <t>PB-02</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -132,7 +2783,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -156,6 +2807,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo 2" xfId="1"/>
@@ -166,6 +2823,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -214,7 +2874,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -249,7 +2909,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -461,12 +3121,12 @@
   <dimension ref="A1:AO1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" style="10" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -479,7 +3139,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -544,15 +3204,16 @@
     <sortCondition ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L10465"/>
+  <dimension ref="B1:P10465"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J2:J9"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:P456"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,10 +3230,13 @@
     <col min="10" max="10" width="34.85546875" style="5" customWidth="1"/>
     <col min="11" max="11" width="5.85546875" style="5"/>
     <col min="12" max="12" width="24.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="5.85546875" style="5"/>
+    <col min="13" max="13" width="5.85546875" style="5"/>
+    <col min="14" max="15" width="22.85546875" style="5" customWidth="1"/>
+    <col min="16" max="16" width="23" style="5" customWidth="1"/>
+    <col min="17" max="16384" width="5.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
@@ -591,8 +3255,14 @@
       <c r="L1" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
@@ -603,8 +3273,14 @@
       <c r="L2" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
@@ -613,8 +3289,14 @@
       <c r="H3" s="8"/>
       <c r="J3" s="8"/>
       <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
@@ -622,8 +3304,14 @@
       <c r="F4" s="8"/>
       <c r="H4" s="8"/>
       <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -631,8 +3319,14 @@
       <c r="F5" s="8"/>
       <c r="H5" s="8"/>
       <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
@@ -640,8 +3334,14 @@
       <c r="F6" s="8"/>
       <c r="H6" s="8"/>
       <c r="J6" s="8"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N6" t="s">
+        <v>21</v>
+      </c>
+      <c r="P6" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
@@ -649,2288 +3349,4988 @@
       <c r="F7" s="8"/>
       <c r="H7" s="8"/>
       <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P7" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8"/>
       <c r="D8"/>
       <c r="F8"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P8" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9"/>
       <c r="D9"/>
       <c r="F9"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P9" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10"/>
       <c r="D10"/>
       <c r="F10"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N10" t="s">
+        <v>25</v>
+      </c>
+      <c r="P10" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11"/>
       <c r="D11"/>
       <c r="F11"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N11" t="s">
+        <v>26</v>
+      </c>
+      <c r="P11" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12"/>
       <c r="D12"/>
       <c r="F12"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N12" t="s">
+        <v>27</v>
+      </c>
+      <c r="P12" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13"/>
       <c r="D13"/>
       <c r="F13"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N13" t="s">
+        <v>28</v>
+      </c>
+      <c r="P13" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14"/>
       <c r="D14"/>
       <c r="F14"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P14" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15"/>
       <c r="D15"/>
       <c r="F15"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N15" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16"/>
       <c r="D16"/>
       <c r="F16"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N16" t="s">
+        <v>31</v>
+      </c>
+      <c r="P16" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17"/>
       <c r="D17"/>
       <c r="F17"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N17" t="s">
+        <v>32</v>
+      </c>
+      <c r="P17" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18"/>
       <c r="D18"/>
       <c r="F18"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N18" t="s">
+        <v>33</v>
+      </c>
+      <c r="P18" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19"/>
       <c r="D19"/>
       <c r="F19"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N19" t="s">
+        <v>34</v>
+      </c>
+      <c r="P19" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20"/>
       <c r="D20"/>
       <c r="F20"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N20" t="s">
+        <v>35</v>
+      </c>
+      <c r="P20" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21"/>
       <c r="D21"/>
       <c r="F21"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N21" t="s">
+        <v>36</v>
+      </c>
+      <c r="P21" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22"/>
       <c r="D22"/>
       <c r="F22"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N22" t="s">
+        <v>37</v>
+      </c>
+      <c r="P22" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23"/>
       <c r="D23"/>
       <c r="F23"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N23" t="s">
+        <v>38</v>
+      </c>
+      <c r="P23" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24"/>
       <c r="D24"/>
       <c r="F24"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N24" t="s">
+        <v>39</v>
+      </c>
+      <c r="P24" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25"/>
       <c r="D25"/>
       <c r="F25"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N25" t="s">
+        <v>40</v>
+      </c>
+      <c r="P25" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26"/>
       <c r="D26"/>
       <c r="F26"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N26" t="s">
+        <v>41</v>
+      </c>
+      <c r="P26" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27"/>
       <c r="D27"/>
       <c r="F27"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N27" t="s">
+        <v>42</v>
+      </c>
+      <c r="P27" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28"/>
       <c r="D28"/>
       <c r="F28"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N28" t="s">
+        <v>43</v>
+      </c>
+      <c r="P28" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29"/>
       <c r="D29"/>
       <c r="F29"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N29" t="s">
+        <v>44</v>
+      </c>
+      <c r="P29" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30"/>
       <c r="D30"/>
       <c r="F30"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N30" t="s">
+        <v>45</v>
+      </c>
+      <c r="P30" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31"/>
       <c r="D31"/>
       <c r="F31"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N31" t="s">
+        <v>46</v>
+      </c>
+      <c r="P31" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32"/>
       <c r="D32"/>
       <c r="F32"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N32" t="s">
+        <v>47</v>
+      </c>
+      <c r="P32" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B33"/>
       <c r="D33"/>
       <c r="F33"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N33" t="s">
+        <v>48</v>
+      </c>
+      <c r="P33" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34"/>
       <c r="D34"/>
       <c r="F34"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N34" t="s">
+        <v>49</v>
+      </c>
+      <c r="P34" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B35"/>
       <c r="D35"/>
       <c r="F35"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N35" t="s">
+        <v>50</v>
+      </c>
+      <c r="P35" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36"/>
       <c r="D36"/>
       <c r="F36"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N36" t="s">
+        <v>51</v>
+      </c>
+      <c r="P36" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B37"/>
       <c r="D37"/>
       <c r="F37"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N37" t="s">
+        <v>52</v>
+      </c>
+      <c r="P37" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38"/>
       <c r="D38"/>
       <c r="F38"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B39"/>
       <c r="D39"/>
       <c r="F39"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N39" t="s">
+        <v>54</v>
+      </c>
+      <c r="P39" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B40"/>
       <c r="D40"/>
       <c r="F40"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N40" t="s">
+        <v>55</v>
+      </c>
+      <c r="P40" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B41"/>
       <c r="D41"/>
       <c r="F41"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N41" t="s">
+        <v>56</v>
+      </c>
+      <c r="P41" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B42"/>
       <c r="D42"/>
       <c r="F42"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N42" t="s">
+        <v>57</v>
+      </c>
+      <c r="P42" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B43"/>
       <c r="D43"/>
       <c r="F43"/>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N43" t="s">
+        <v>58</v>
+      </c>
+      <c r="P43" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B44"/>
       <c r="D44"/>
       <c r="F44"/>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N44" t="s">
+        <v>59</v>
+      </c>
+      <c r="P44" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B45"/>
       <c r="D45"/>
       <c r="F45"/>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N45" t="s">
+        <v>60</v>
+      </c>
+      <c r="P45" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B46"/>
       <c r="D46"/>
       <c r="F46"/>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N46" t="s">
+        <v>61</v>
+      </c>
+      <c r="P46" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B47"/>
       <c r="D47"/>
       <c r="F47"/>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N47" t="s">
+        <v>62</v>
+      </c>
+      <c r="P47" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B48"/>
       <c r="D48"/>
       <c r="F48"/>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N48" t="s">
+        <v>63</v>
+      </c>
+      <c r="P48" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B49"/>
       <c r="D49"/>
       <c r="F49"/>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N49" t="s">
+        <v>64</v>
+      </c>
+      <c r="P49" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B50"/>
       <c r="D50"/>
       <c r="F50"/>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N50" t="s">
+        <v>65</v>
+      </c>
+      <c r="P50" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B51"/>
       <c r="D51"/>
       <c r="F51"/>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N51" t="s">
+        <v>66</v>
+      </c>
+      <c r="P51" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B52"/>
       <c r="D52"/>
       <c r="F52"/>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N52" t="s">
+        <v>67</v>
+      </c>
+      <c r="P52" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B53"/>
       <c r="D53"/>
       <c r="F53"/>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N53" t="s">
+        <v>68</v>
+      </c>
+      <c r="P53" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B54"/>
       <c r="D54"/>
       <c r="F54"/>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N54" t="s">
+        <v>69</v>
+      </c>
+      <c r="P54" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B55"/>
       <c r="D55"/>
       <c r="F55"/>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N55" t="s">
+        <v>70</v>
+      </c>
+      <c r="P55" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="56" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B56"/>
       <c r="D56"/>
       <c r="F56"/>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N56" t="s">
+        <v>71</v>
+      </c>
+      <c r="P56" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B57"/>
       <c r="D57"/>
       <c r="F57"/>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N57" t="s">
+        <v>72</v>
+      </c>
+      <c r="P57" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="58" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B58"/>
       <c r="D58"/>
       <c r="F58"/>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N58" t="s">
+        <v>73</v>
+      </c>
+      <c r="P58" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B59"/>
       <c r="D59"/>
       <c r="F59"/>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N59" t="s">
+        <v>74</v>
+      </c>
+      <c r="P59" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="60" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B60"/>
       <c r="D60"/>
       <c r="F60"/>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N60" t="s">
+        <v>75</v>
+      </c>
+      <c r="P60" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B61"/>
       <c r="D61"/>
       <c r="F61"/>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N61" t="s">
+        <v>76</v>
+      </c>
+      <c r="P61" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="62" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B62"/>
       <c r="D62"/>
       <c r="F62"/>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N62" t="s">
+        <v>77</v>
+      </c>
+      <c r="P62" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B63"/>
       <c r="D63"/>
       <c r="F63"/>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N63" t="s">
+        <v>78</v>
+      </c>
+      <c r="P63" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="64" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B64"/>
       <c r="D64"/>
       <c r="F64"/>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N64" t="s">
+        <v>79</v>
+      </c>
+      <c r="P64" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B65"/>
       <c r="D65"/>
       <c r="F65"/>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N65" t="s">
+        <v>80</v>
+      </c>
+      <c r="P65" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B66"/>
       <c r="D66"/>
       <c r="F66"/>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N66" t="s">
+        <v>81</v>
+      </c>
+      <c r="P66" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B67"/>
       <c r="D67"/>
       <c r="F67"/>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N67" t="s">
+        <v>82</v>
+      </c>
+      <c r="P67" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B68"/>
       <c r="D68"/>
       <c r="F68"/>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N68" t="s">
+        <v>83</v>
+      </c>
+      <c r="P68" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B69"/>
       <c r="D69"/>
       <c r="F69"/>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N69" t="s">
+        <v>84</v>
+      </c>
+      <c r="P69" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B70"/>
       <c r="D70"/>
       <c r="F70"/>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N70" t="s">
+        <v>85</v>
+      </c>
+      <c r="P70" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B71"/>
       <c r="D71"/>
       <c r="F71"/>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N71" t="s">
+        <v>86</v>
+      </c>
+      <c r="P71" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B72"/>
       <c r="D72"/>
       <c r="F72"/>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N72" t="s">
+        <v>87</v>
+      </c>
+      <c r="P72" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B73"/>
       <c r="D73"/>
       <c r="F73"/>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N73" t="s">
+        <v>88</v>
+      </c>
+      <c r="P73" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B74"/>
       <c r="D74"/>
       <c r="F74"/>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N74" t="s">
+        <v>89</v>
+      </c>
+      <c r="P74" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B75"/>
       <c r="D75"/>
       <c r="F75"/>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N75" t="s">
+        <v>90</v>
+      </c>
+      <c r="P75" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B76"/>
       <c r="D76"/>
       <c r="F76"/>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N76" t="s">
+        <v>91</v>
+      </c>
+      <c r="P76" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B77"/>
       <c r="D77"/>
       <c r="F77"/>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N77" t="s">
+        <v>92</v>
+      </c>
+      <c r="P77" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="78" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B78"/>
       <c r="D78"/>
       <c r="F78"/>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N78" t="s">
+        <v>93</v>
+      </c>
+      <c r="P78" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B79"/>
       <c r="D79"/>
       <c r="F79"/>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N79" t="s">
+        <v>94</v>
+      </c>
+      <c r="P79" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="80" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B80"/>
       <c r="D80"/>
       <c r="F80"/>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N80" t="s">
+        <v>95</v>
+      </c>
+      <c r="P80" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B81"/>
       <c r="D81"/>
       <c r="F81"/>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N81" t="s">
+        <v>96</v>
+      </c>
+      <c r="P81" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B82"/>
       <c r="D82"/>
       <c r="F82"/>
-    </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N82" t="s">
+        <v>97</v>
+      </c>
+      <c r="P82" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B83"/>
       <c r="D83"/>
       <c r="F83"/>
-    </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N83" t="s">
+        <v>98</v>
+      </c>
+      <c r="P83" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B84"/>
       <c r="D84"/>
       <c r="F84"/>
-    </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N84" t="s">
+        <v>99</v>
+      </c>
+      <c r="P84" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B85"/>
       <c r="D85"/>
       <c r="F85"/>
-    </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N85" t="s">
+        <v>100</v>
+      </c>
+      <c r="P85" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B86"/>
       <c r="D86"/>
       <c r="F86"/>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N86" t="s">
+        <v>101</v>
+      </c>
+      <c r="P86" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B87"/>
       <c r="D87"/>
       <c r="F87"/>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N87" t="s">
+        <v>102</v>
+      </c>
+      <c r="P87" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B88"/>
       <c r="D88"/>
       <c r="F88"/>
-    </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N88" t="s">
+        <v>103</v>
+      </c>
+      <c r="P88" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B89"/>
       <c r="D89"/>
       <c r="F89"/>
-    </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N89" t="s">
+        <v>104</v>
+      </c>
+      <c r="P89" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B90"/>
       <c r="D90"/>
       <c r="F90"/>
-    </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N90" t="s">
+        <v>105</v>
+      </c>
+      <c r="P90" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B91"/>
       <c r="D91"/>
       <c r="F91"/>
-    </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N91" t="s">
+        <v>106</v>
+      </c>
+      <c r="P91" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B92"/>
       <c r="D92"/>
       <c r="F92"/>
-    </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N92" t="s">
+        <v>107</v>
+      </c>
+      <c r="P92" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B93"/>
       <c r="D93"/>
       <c r="F93"/>
-    </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N93" t="s">
+        <v>108</v>
+      </c>
+      <c r="P93" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B94"/>
       <c r="D94"/>
       <c r="F94"/>
-    </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N94" t="s">
+        <v>109</v>
+      </c>
+      <c r="P94" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B95"/>
       <c r="D95"/>
       <c r="F95"/>
-    </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N95" t="s">
+        <v>110</v>
+      </c>
+      <c r="P95" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B96"/>
       <c r="D96"/>
       <c r="F96"/>
-    </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N96" t="s">
+        <v>111</v>
+      </c>
+      <c r="P96" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="97" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B97"/>
       <c r="D97"/>
       <c r="F97"/>
-    </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N97" t="s">
+        <v>112</v>
+      </c>
+      <c r="P97" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="98" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B98"/>
       <c r="D98"/>
       <c r="F98"/>
-    </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N98" t="s">
+        <v>113</v>
+      </c>
+      <c r="P98" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="99" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B99"/>
       <c r="D99"/>
       <c r="F99"/>
-    </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N99" t="s">
+        <v>114</v>
+      </c>
+      <c r="P99" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="100" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B100"/>
       <c r="D100"/>
       <c r="F100"/>
-    </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N100" t="s">
+        <v>115</v>
+      </c>
+      <c r="P100" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="101" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B101"/>
       <c r="D101"/>
       <c r="F101"/>
-    </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N101" t="s">
+        <v>116</v>
+      </c>
+      <c r="P101" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="102" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B102"/>
       <c r="D102"/>
       <c r="F102"/>
-    </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N102" t="s">
+        <v>117</v>
+      </c>
+      <c r="P102" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="103" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B103"/>
       <c r="D103"/>
       <c r="F103"/>
-    </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N103" t="s">
+        <v>118</v>
+      </c>
+      <c r="P103" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B104"/>
       <c r="D104"/>
       <c r="F104"/>
-    </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N104" t="s">
+        <v>119</v>
+      </c>
+      <c r="P104" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="105" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B105"/>
       <c r="D105"/>
       <c r="F105"/>
-    </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N105" t="s">
+        <v>120</v>
+      </c>
+      <c r="P105" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="106" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B106"/>
       <c r="D106"/>
       <c r="F106"/>
-    </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N106" t="s">
+        <v>121</v>
+      </c>
+      <c r="P106" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B107"/>
       <c r="D107"/>
       <c r="F107"/>
-    </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N107" t="s">
+        <v>122</v>
+      </c>
+      <c r="P107" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="108" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B108"/>
       <c r="D108"/>
       <c r="F108"/>
-    </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N108" t="s">
+        <v>123</v>
+      </c>
+      <c r="P108" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="109" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B109"/>
       <c r="D109"/>
       <c r="F109"/>
-    </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N109" t="s">
+        <v>124</v>
+      </c>
+      <c r="P109" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="110" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B110"/>
       <c r="D110"/>
       <c r="F110"/>
-    </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N110" t="s">
+        <v>125</v>
+      </c>
+      <c r="P110" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="111" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B111"/>
       <c r="D111"/>
       <c r="F111"/>
-    </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N111" t="s">
+        <v>126</v>
+      </c>
+      <c r="P111" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="112" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B112"/>
       <c r="D112"/>
       <c r="F112"/>
-    </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N112" t="s">
+        <v>127</v>
+      </c>
+      <c r="P112" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="113" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B113"/>
       <c r="D113"/>
       <c r="F113"/>
-    </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N113" t="s">
+        <v>128</v>
+      </c>
+      <c r="P113" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="114" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B114"/>
       <c r="D114"/>
       <c r="F114"/>
-    </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N114" t="s">
+        <v>129</v>
+      </c>
+      <c r="P114" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="115" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B115"/>
       <c r="D115"/>
       <c r="F115"/>
-    </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N115" t="s">
+        <v>130</v>
+      </c>
+      <c r="P115" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="116" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B116"/>
       <c r="D116"/>
       <c r="F116"/>
-    </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N116" t="s">
+        <v>131</v>
+      </c>
+      <c r="P116" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="117" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B117"/>
       <c r="D117"/>
       <c r="F117"/>
-    </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N117" t="s">
+        <v>132</v>
+      </c>
+      <c r="P117" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="118" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B118"/>
       <c r="D118"/>
       <c r="F118"/>
-    </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N118" t="s">
+        <v>133</v>
+      </c>
+      <c r="P118" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="119" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B119"/>
       <c r="D119"/>
       <c r="F119"/>
-    </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N119" t="s">
+        <v>134</v>
+      </c>
+      <c r="P119" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="120" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B120"/>
       <c r="D120"/>
       <c r="F120"/>
-    </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N120" t="s">
+        <v>135</v>
+      </c>
+      <c r="P120" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="121" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B121"/>
       <c r="D121"/>
       <c r="F121"/>
-    </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N121" t="s">
+        <v>136</v>
+      </c>
+      <c r="P121" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="122" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B122"/>
       <c r="D122"/>
       <c r="F122"/>
-    </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N122" t="s">
+        <v>137</v>
+      </c>
+      <c r="P122" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="123" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B123"/>
       <c r="D123"/>
       <c r="F123"/>
-    </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N123" t="s">
+        <v>138</v>
+      </c>
+      <c r="P123" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="124" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B124"/>
       <c r="D124"/>
       <c r="F124"/>
-    </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N124" t="s">
+        <v>139</v>
+      </c>
+      <c r="P124" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="125" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B125"/>
       <c r="D125"/>
       <c r="F125"/>
-    </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N125" t="s">
+        <v>140</v>
+      </c>
+      <c r="P125" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="126" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B126"/>
       <c r="D126"/>
       <c r="F126"/>
-    </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N126" t="s">
+        <v>141</v>
+      </c>
+      <c r="P126" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="127" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B127"/>
       <c r="D127"/>
       <c r="F127"/>
-    </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N127" t="s">
+        <v>142</v>
+      </c>
+      <c r="P127" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="128" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B128"/>
       <c r="D128"/>
       <c r="F128"/>
-    </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N128" t="s">
+        <v>143</v>
+      </c>
+      <c r="P128" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="129" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B129"/>
       <c r="D129"/>
       <c r="F129"/>
-    </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N129" t="s">
+        <v>144</v>
+      </c>
+      <c r="P129" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="130" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B130"/>
       <c r="D130"/>
       <c r="F130"/>
-    </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N130" t="s">
+        <v>145</v>
+      </c>
+      <c r="P130" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="131" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B131"/>
       <c r="D131"/>
       <c r="F131"/>
-    </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N131" t="s">
+        <v>146</v>
+      </c>
+      <c r="P131" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="132" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B132"/>
       <c r="D132"/>
       <c r="F132"/>
-    </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N132" t="s">
+        <v>147</v>
+      </c>
+      <c r="P132" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="133" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B133"/>
       <c r="D133"/>
       <c r="F133"/>
-    </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N133" t="s">
+        <v>148</v>
+      </c>
+      <c r="P133" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="134" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B134"/>
       <c r="D134"/>
       <c r="F134"/>
-    </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N134" t="s">
+        <v>149</v>
+      </c>
+      <c r="P134" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="135" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B135"/>
       <c r="D135"/>
       <c r="F135"/>
-    </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N135" t="s">
+        <v>150</v>
+      </c>
+      <c r="P135" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="136" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B136"/>
       <c r="D136"/>
       <c r="F136"/>
-    </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N136" t="s">
+        <v>151</v>
+      </c>
+      <c r="P136" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="137" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B137"/>
       <c r="D137"/>
       <c r="F137"/>
-    </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N137" t="s">
+        <v>152</v>
+      </c>
+      <c r="P137" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="138" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B138"/>
       <c r="D138"/>
       <c r="F138"/>
-    </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N138" t="s">
+        <v>153</v>
+      </c>
+      <c r="P138" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="139" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B139"/>
       <c r="D139"/>
       <c r="F139"/>
-    </row>
-    <row r="140" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N139" t="s">
+        <v>154</v>
+      </c>
+      <c r="P139" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="140" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B140"/>
       <c r="D140"/>
       <c r="F140"/>
-    </row>
-    <row r="141" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N140" t="s">
+        <v>155</v>
+      </c>
+      <c r="P140" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="141" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B141"/>
       <c r="D141"/>
       <c r="F141"/>
-    </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N141" t="s">
+        <v>156</v>
+      </c>
+      <c r="P141" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="142" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B142"/>
       <c r="D142"/>
       <c r="F142"/>
-    </row>
-    <row r="143" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N142" t="s">
+        <v>157</v>
+      </c>
+      <c r="P142" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="143" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B143"/>
       <c r="D143"/>
       <c r="F143"/>
-    </row>
-    <row r="144" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N143" t="s">
+        <v>158</v>
+      </c>
+      <c r="P143" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="144" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B144"/>
       <c r="D144"/>
       <c r="F144"/>
-    </row>
-    <row r="145" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N144" t="s">
+        <v>159</v>
+      </c>
+      <c r="P144" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="145" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B145"/>
       <c r="D145"/>
       <c r="F145"/>
-    </row>
-    <row r="146" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N145" t="s">
+        <v>160</v>
+      </c>
+      <c r="P145" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="146" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B146"/>
       <c r="D146"/>
       <c r="F146"/>
-    </row>
-    <row r="147" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N146" t="s">
+        <v>161</v>
+      </c>
+      <c r="P146" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="147" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B147"/>
       <c r="D147"/>
       <c r="F147"/>
-    </row>
-    <row r="148" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N147" t="s">
+        <v>162</v>
+      </c>
+      <c r="P147" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="148" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B148"/>
       <c r="D148"/>
       <c r="F148"/>
-    </row>
-    <row r="149" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N148" t="s">
+        <v>163</v>
+      </c>
+      <c r="P148" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="149" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B149"/>
       <c r="D149"/>
       <c r="F149"/>
-    </row>
-    <row r="150" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N149" t="s">
+        <v>164</v>
+      </c>
+      <c r="P149" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="150" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B150"/>
       <c r="D150"/>
       <c r="F150"/>
-    </row>
-    <row r="151" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N150" t="s">
+        <v>165</v>
+      </c>
+      <c r="P150" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="151" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B151"/>
       <c r="D151"/>
       <c r="F151"/>
-    </row>
-    <row r="152" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N151" t="s">
+        <v>166</v>
+      </c>
+      <c r="P151" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="152" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B152"/>
       <c r="D152"/>
       <c r="F152"/>
-    </row>
-    <row r="153" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N152" t="s">
+        <v>167</v>
+      </c>
+      <c r="P152" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="153" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B153"/>
       <c r="D153"/>
       <c r="F153"/>
-    </row>
-    <row r="154" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N153" t="s">
+        <v>168</v>
+      </c>
+      <c r="P153" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="154" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B154"/>
       <c r="D154"/>
       <c r="F154"/>
-    </row>
-    <row r="155" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N154" t="s">
+        <v>169</v>
+      </c>
+      <c r="P154" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="155" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B155"/>
       <c r="D155"/>
       <c r="F155"/>
-    </row>
-    <row r="156" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N155" t="s">
+        <v>170</v>
+      </c>
+      <c r="P155" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="156" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B156"/>
       <c r="D156"/>
       <c r="F156"/>
-    </row>
-    <row r="157" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N156" t="s">
+        <v>171</v>
+      </c>
+      <c r="P156" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="157" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B157"/>
       <c r="D157"/>
       <c r="F157"/>
-    </row>
-    <row r="158" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N157" t="s">
+        <v>172</v>
+      </c>
+      <c r="P157" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="158" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B158"/>
       <c r="D158"/>
       <c r="F158"/>
-    </row>
-    <row r="159" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N158" t="s">
+        <v>173</v>
+      </c>
+      <c r="P158" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="159" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B159"/>
       <c r="D159"/>
       <c r="F159"/>
-    </row>
-    <row r="160" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N159" t="s">
+        <v>174</v>
+      </c>
+      <c r="P159" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="160" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B160"/>
       <c r="D160"/>
       <c r="F160"/>
-    </row>
-    <row r="161" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N160" t="s">
+        <v>175</v>
+      </c>
+      <c r="P160" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="161" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B161"/>
       <c r="D161"/>
       <c r="F161"/>
-    </row>
-    <row r="162" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N161" t="s">
+        <v>176</v>
+      </c>
+      <c r="P161" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="162" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B162"/>
       <c r="D162"/>
       <c r="F162"/>
-    </row>
-    <row r="163" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N162" t="s">
+        <v>177</v>
+      </c>
+      <c r="P162" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="163" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B163"/>
       <c r="D163"/>
       <c r="F163"/>
-    </row>
-    <row r="164" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N163" t="s">
+        <v>178</v>
+      </c>
+      <c r="P163" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="164" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B164"/>
       <c r="D164"/>
       <c r="F164"/>
-    </row>
-    <row r="165" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N164" t="s">
+        <v>179</v>
+      </c>
+      <c r="P164" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="165" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B165"/>
       <c r="D165"/>
       <c r="F165"/>
-    </row>
-    <row r="166" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N165" t="s">
+        <v>180</v>
+      </c>
+      <c r="P165" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="166" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B166"/>
       <c r="D166"/>
       <c r="F166"/>
-    </row>
-    <row r="167" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N166" t="s">
+        <v>181</v>
+      </c>
+      <c r="P166" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="167" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B167"/>
       <c r="D167"/>
       <c r="F167"/>
-    </row>
-    <row r="168" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N167" t="s">
+        <v>182</v>
+      </c>
+      <c r="P167" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="168" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B168"/>
       <c r="D168"/>
       <c r="F168"/>
-    </row>
-    <row r="169" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N168" t="s">
+        <v>183</v>
+      </c>
+      <c r="P168" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="169" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B169"/>
       <c r="D169"/>
       <c r="F169"/>
-    </row>
-    <row r="170" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N169" t="s">
+        <v>184</v>
+      </c>
+      <c r="P169" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="170" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B170"/>
       <c r="D170"/>
       <c r="F170"/>
-    </row>
-    <row r="171" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N170" t="s">
+        <v>185</v>
+      </c>
+      <c r="P170" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="171" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B171"/>
       <c r="D171"/>
       <c r="F171"/>
-    </row>
-    <row r="172" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N171" t="s">
+        <v>186</v>
+      </c>
+      <c r="P171" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="172" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B172"/>
       <c r="D172"/>
       <c r="F172"/>
-    </row>
-    <row r="173" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N172" t="s">
+        <v>187</v>
+      </c>
+      <c r="P172" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="173" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B173"/>
       <c r="D173"/>
       <c r="F173"/>
-    </row>
-    <row r="174" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N173" t="s">
+        <v>188</v>
+      </c>
+      <c r="P173" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="174" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B174"/>
       <c r="D174"/>
       <c r="F174"/>
-    </row>
-    <row r="175" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N174" t="s">
+        <v>189</v>
+      </c>
+      <c r="P174" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="175" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B175"/>
       <c r="D175"/>
       <c r="F175"/>
-    </row>
-    <row r="176" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N175" t="s">
+        <v>190</v>
+      </c>
+      <c r="P175" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="176" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B176"/>
       <c r="D176"/>
       <c r="F176"/>
-    </row>
-    <row r="177" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N176" t="s">
+        <v>191</v>
+      </c>
+      <c r="P176" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="177" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B177"/>
       <c r="D177"/>
       <c r="F177"/>
-    </row>
-    <row r="178" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N177" t="s">
+        <v>192</v>
+      </c>
+      <c r="P177" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="178" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B178"/>
       <c r="D178"/>
       <c r="F178"/>
-    </row>
-    <row r="179" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N178" t="s">
+        <v>193</v>
+      </c>
+      <c r="P178" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="179" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B179"/>
       <c r="D179"/>
       <c r="F179"/>
-    </row>
-    <row r="180" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N179" t="s">
+        <v>194</v>
+      </c>
+      <c r="P179" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="180" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B180"/>
       <c r="D180"/>
       <c r="F180"/>
-    </row>
-    <row r="181" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N180" t="s">
+        <v>195</v>
+      </c>
+      <c r="P180" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="181" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B181"/>
       <c r="D181"/>
       <c r="F181"/>
-    </row>
-    <row r="182" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N181" t="s">
+        <v>196</v>
+      </c>
+      <c r="P181" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="182" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B182"/>
       <c r="D182"/>
       <c r="F182"/>
-    </row>
-    <row r="183" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N182" t="s">
+        <v>197</v>
+      </c>
+      <c r="P182" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="183" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B183"/>
       <c r="D183"/>
       <c r="F183"/>
-    </row>
-    <row r="184" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N183" t="s">
+        <v>198</v>
+      </c>
+      <c r="P183" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="184" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B184"/>
       <c r="D184"/>
       <c r="F184"/>
-    </row>
-    <row r="185" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N184" t="s">
+        <v>199</v>
+      </c>
+      <c r="P184" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="185" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B185"/>
       <c r="D185"/>
       <c r="F185"/>
-    </row>
-    <row r="186" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N185" t="s">
+        <v>200</v>
+      </c>
+      <c r="P185" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="186" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B186"/>
       <c r="D186"/>
       <c r="F186"/>
-    </row>
-    <row r="187" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N186" t="s">
+        <v>201</v>
+      </c>
+      <c r="P186" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="187" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B187"/>
       <c r="D187"/>
       <c r="F187"/>
-    </row>
-    <row r="188" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N187" t="s">
+        <v>202</v>
+      </c>
+      <c r="P187" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="188" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B188"/>
       <c r="D188"/>
       <c r="F188"/>
-    </row>
-    <row r="189" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N188" t="s">
+        <v>203</v>
+      </c>
+      <c r="P188" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="189" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B189"/>
       <c r="D189"/>
       <c r="F189"/>
-    </row>
-    <row r="190" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N189" t="s">
+        <v>204</v>
+      </c>
+      <c r="P189" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="190" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B190"/>
       <c r="D190"/>
       <c r="F190"/>
-    </row>
-    <row r="191" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N190" t="s">
+        <v>205</v>
+      </c>
+      <c r="P190" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="191" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B191"/>
       <c r="D191"/>
       <c r="F191"/>
-    </row>
-    <row r="192" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N191" t="s">
+        <v>206</v>
+      </c>
+      <c r="P191" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="192" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B192"/>
       <c r="D192"/>
       <c r="F192"/>
-    </row>
-    <row r="193" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N192" t="s">
+        <v>207</v>
+      </c>
+      <c r="P192" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="193" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B193"/>
       <c r="D193"/>
       <c r="F193"/>
-    </row>
-    <row r="194" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N193" t="s">
+        <v>208</v>
+      </c>
+      <c r="P193" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="194" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B194"/>
       <c r="D194"/>
       <c r="F194"/>
-    </row>
-    <row r="195" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N194" t="s">
+        <v>209</v>
+      </c>
+      <c r="P194" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="195" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B195"/>
       <c r="D195"/>
       <c r="F195"/>
-    </row>
-    <row r="196" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N195" t="s">
+        <v>210</v>
+      </c>
+      <c r="P195" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="196" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B196"/>
       <c r="D196"/>
       <c r="F196"/>
-    </row>
-    <row r="197" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N196" t="s">
+        <v>211</v>
+      </c>
+      <c r="P196" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="197" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B197"/>
       <c r="D197"/>
       <c r="F197"/>
-    </row>
-    <row r="198" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N197" t="s">
+        <v>212</v>
+      </c>
+      <c r="P197" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="198" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B198"/>
       <c r="D198"/>
       <c r="F198"/>
-    </row>
-    <row r="199" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N198" t="s">
+        <v>213</v>
+      </c>
+      <c r="P198" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="199" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B199"/>
       <c r="D199"/>
       <c r="F199"/>
-    </row>
-    <row r="200" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N199" t="s">
+        <v>214</v>
+      </c>
+      <c r="P199" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="200" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B200"/>
       <c r="D200"/>
       <c r="F200"/>
-    </row>
-    <row r="201" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N200" t="s">
+        <v>215</v>
+      </c>
+      <c r="P200" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="201" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B201"/>
       <c r="D201"/>
       <c r="F201"/>
-    </row>
-    <row r="202" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N201" t="s">
+        <v>216</v>
+      </c>
+      <c r="P201" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="202" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B202"/>
       <c r="D202"/>
       <c r="F202"/>
-    </row>
-    <row r="203" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N202" t="s">
+        <v>217</v>
+      </c>
+      <c r="P202" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="203" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B203"/>
       <c r="D203"/>
       <c r="F203"/>
-    </row>
-    <row r="204" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N203" t="s">
+        <v>218</v>
+      </c>
+      <c r="P203" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="204" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B204"/>
       <c r="D204"/>
       <c r="F204"/>
-    </row>
-    <row r="205" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N204" t="s">
+        <v>219</v>
+      </c>
+      <c r="P204" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="205" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B205"/>
       <c r="D205"/>
       <c r="F205"/>
-    </row>
-    <row r="206" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N205" t="s">
+        <v>220</v>
+      </c>
+      <c r="P205" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="206" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B206"/>
       <c r="D206"/>
       <c r="F206"/>
-    </row>
-    <row r="207" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N206" t="s">
+        <v>221</v>
+      </c>
+      <c r="P206" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="207" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B207"/>
       <c r="D207"/>
       <c r="F207"/>
-    </row>
-    <row r="208" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N207" t="s">
+        <v>222</v>
+      </c>
+      <c r="P207" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="208" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B208"/>
       <c r="D208"/>
       <c r="F208"/>
-    </row>
-    <row r="209" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N208" t="s">
+        <v>223</v>
+      </c>
+      <c r="P208" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="209" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B209"/>
       <c r="D209"/>
       <c r="F209"/>
-    </row>
-    <row r="210" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N209" t="s">
+        <v>224</v>
+      </c>
+      <c r="P209" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="210" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B210"/>
       <c r="D210"/>
       <c r="F210"/>
-    </row>
-    <row r="211" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N210" t="s">
+        <v>225</v>
+      </c>
+      <c r="P210" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="211" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B211"/>
       <c r="D211"/>
       <c r="F211"/>
-    </row>
-    <row r="212" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N211" t="s">
+        <v>226</v>
+      </c>
+      <c r="P211" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="212" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B212"/>
       <c r="D212"/>
       <c r="F212"/>
-    </row>
-    <row r="213" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N212" t="s">
+        <v>227</v>
+      </c>
+      <c r="P212" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="213" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B213"/>
       <c r="D213"/>
       <c r="F213"/>
-    </row>
-    <row r="214" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N213" t="s">
+        <v>228</v>
+      </c>
+      <c r="P213" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="214" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B214"/>
       <c r="D214"/>
       <c r="F214"/>
-    </row>
-    <row r="215" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N214" t="s">
+        <v>229</v>
+      </c>
+      <c r="P214" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="215" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B215"/>
       <c r="D215"/>
       <c r="F215"/>
-    </row>
-    <row r="216" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N215" t="s">
+        <v>230</v>
+      </c>
+      <c r="P215" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="216" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B216"/>
       <c r="D216"/>
       <c r="F216"/>
-    </row>
-    <row r="217" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N216" t="s">
+        <v>231</v>
+      </c>
+      <c r="P216" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="217" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B217"/>
       <c r="D217"/>
       <c r="F217"/>
-    </row>
-    <row r="218" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N217" t="s">
+        <v>232</v>
+      </c>
+      <c r="P217" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="218" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B218"/>
       <c r="D218"/>
       <c r="F218"/>
-    </row>
-    <row r="219" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N218" t="s">
+        <v>233</v>
+      </c>
+      <c r="P218" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="219" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B219"/>
       <c r="D219"/>
       <c r="F219"/>
-    </row>
-    <row r="220" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N219" t="s">
+        <v>234</v>
+      </c>
+      <c r="P219" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="220" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B220"/>
       <c r="D220"/>
       <c r="F220"/>
-    </row>
-    <row r="221" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N220" t="s">
+        <v>235</v>
+      </c>
+      <c r="P220" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="221" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B221"/>
       <c r="D221"/>
       <c r="F221"/>
-    </row>
-    <row r="222" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N221" t="s">
+        <v>236</v>
+      </c>
+      <c r="P221" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="222" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B222"/>
       <c r="D222"/>
       <c r="F222"/>
-    </row>
-    <row r="223" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N222" t="s">
+        <v>237</v>
+      </c>
+      <c r="P222" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="223" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B223"/>
       <c r="D223"/>
       <c r="F223"/>
-    </row>
-    <row r="224" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N223" t="s">
+        <v>238</v>
+      </c>
+      <c r="P223" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="224" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B224"/>
       <c r="D224"/>
       <c r="F224"/>
-    </row>
-    <row r="225" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N224" t="s">
+        <v>239</v>
+      </c>
+      <c r="P224" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="225" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B225"/>
       <c r="D225"/>
       <c r="F225"/>
-    </row>
-    <row r="226" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N225" t="s">
+        <v>240</v>
+      </c>
+      <c r="P225" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="226" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B226"/>
       <c r="D226"/>
       <c r="F226"/>
-    </row>
-    <row r="227" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N226" t="s">
+        <v>241</v>
+      </c>
+      <c r="P226" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="227" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B227"/>
       <c r="D227"/>
       <c r="F227"/>
-    </row>
-    <row r="228" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N227" t="s">
+        <v>242</v>
+      </c>
+      <c r="P227" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="228" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B228"/>
       <c r="D228"/>
       <c r="F228"/>
-    </row>
-    <row r="229" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N228" t="s">
+        <v>243</v>
+      </c>
+      <c r="P228" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="229" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B229"/>
       <c r="D229"/>
       <c r="F229"/>
-    </row>
-    <row r="230" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N229" t="s">
+        <v>244</v>
+      </c>
+      <c r="P229" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="230" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B230"/>
       <c r="D230"/>
       <c r="F230"/>
-    </row>
-    <row r="231" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N230" t="s">
+        <v>245</v>
+      </c>
+      <c r="P230" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="231" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B231"/>
       <c r="D231"/>
       <c r="F231"/>
-    </row>
-    <row r="232" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N231" t="s">
+        <v>246</v>
+      </c>
+      <c r="P231" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="232" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B232"/>
       <c r="D232"/>
       <c r="F232"/>
-    </row>
-    <row r="233" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N232" t="s">
+        <v>247</v>
+      </c>
+      <c r="P232" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="233" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B233"/>
       <c r="D233"/>
       <c r="F233"/>
-    </row>
-    <row r="234" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N233" t="s">
+        <v>248</v>
+      </c>
+      <c r="P233" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="234" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B234"/>
       <c r="D234"/>
       <c r="F234"/>
-    </row>
-    <row r="235" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N234" t="s">
+        <v>249</v>
+      </c>
+      <c r="P234" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="235" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B235"/>
       <c r="D235"/>
       <c r="F235"/>
-    </row>
-    <row r="236" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N235" t="s">
+        <v>250</v>
+      </c>
+      <c r="P235" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="236" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B236"/>
       <c r="D236"/>
       <c r="F236"/>
-    </row>
-    <row r="237" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N236" t="s">
+        <v>251</v>
+      </c>
+      <c r="P236" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="237" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B237"/>
       <c r="D237"/>
       <c r="F237"/>
-    </row>
-    <row r="238" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N237" t="s">
+        <v>252</v>
+      </c>
+      <c r="P237" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="238" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B238"/>
       <c r="D238"/>
       <c r="F238"/>
-    </row>
-    <row r="239" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N238" t="s">
+        <v>253</v>
+      </c>
+      <c r="P238" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="239" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B239"/>
       <c r="D239"/>
       <c r="F239"/>
-    </row>
-    <row r="240" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N239" t="s">
+        <v>254</v>
+      </c>
+      <c r="P239" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="240" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B240"/>
       <c r="D240"/>
       <c r="F240"/>
-    </row>
-    <row r="241" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N240" t="s">
+        <v>255</v>
+      </c>
+      <c r="P240" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="241" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B241"/>
       <c r="D241"/>
       <c r="F241"/>
-    </row>
-    <row r="242" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N241" t="s">
+        <v>256</v>
+      </c>
+      <c r="P241" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="242" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B242"/>
       <c r="D242"/>
       <c r="F242"/>
-    </row>
-    <row r="243" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N242" t="s">
+        <v>257</v>
+      </c>
+      <c r="P242" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="243" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B243"/>
       <c r="D243"/>
       <c r="F243"/>
-    </row>
-    <row r="244" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N243" t="s">
+        <v>258</v>
+      </c>
+      <c r="P243" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="244" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B244"/>
       <c r="D244"/>
       <c r="F244"/>
-    </row>
-    <row r="245" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N244" t="s">
+        <v>259</v>
+      </c>
+      <c r="P244" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="245" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B245"/>
       <c r="D245"/>
       <c r="F245"/>
-    </row>
-    <row r="246" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N245" t="s">
+        <v>260</v>
+      </c>
+      <c r="P245" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="246" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B246"/>
       <c r="D246"/>
       <c r="F246"/>
-    </row>
-    <row r="247" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N246" t="s">
+        <v>261</v>
+      </c>
+      <c r="P246" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="247" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B247"/>
       <c r="D247"/>
       <c r="F247"/>
-    </row>
-    <row r="248" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N247" t="s">
+        <v>262</v>
+      </c>
+      <c r="P247" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="248" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B248"/>
       <c r="D248"/>
       <c r="F248"/>
-    </row>
-    <row r="249" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N248" t="s">
+        <v>263</v>
+      </c>
+      <c r="P248" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="249" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B249"/>
       <c r="D249"/>
       <c r="F249"/>
-    </row>
-    <row r="250" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N249" t="s">
+        <v>264</v>
+      </c>
+      <c r="P249" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="250" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B250"/>
       <c r="D250"/>
       <c r="F250"/>
-    </row>
-    <row r="251" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N250" t="s">
+        <v>265</v>
+      </c>
+      <c r="P250" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="251" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B251"/>
       <c r="D251"/>
       <c r="F251"/>
-    </row>
-    <row r="252" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N251" t="s">
+        <v>266</v>
+      </c>
+      <c r="P251" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="252" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B252"/>
       <c r="D252"/>
       <c r="F252"/>
-    </row>
-    <row r="253" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N252" t="s">
+        <v>267</v>
+      </c>
+      <c r="P252" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="253" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B253"/>
       <c r="D253"/>
       <c r="F253"/>
-    </row>
-    <row r="254" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N253" t="s">
+        <v>268</v>
+      </c>
+      <c r="P253" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="254" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B254"/>
       <c r="D254"/>
       <c r="F254"/>
-    </row>
-    <row r="255" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N254" t="s">
+        <v>269</v>
+      </c>
+      <c r="P254" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="255" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B255"/>
       <c r="D255"/>
       <c r="F255"/>
-    </row>
-    <row r="256" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N255" t="s">
+        <v>270</v>
+      </c>
+      <c r="P255" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="256" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B256"/>
       <c r="D256"/>
       <c r="F256"/>
-    </row>
-    <row r="257" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N256" t="s">
+        <v>271</v>
+      </c>
+      <c r="P256" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="257" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B257"/>
       <c r="D257"/>
       <c r="F257"/>
-    </row>
-    <row r="258" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N257" t="s">
+        <v>272</v>
+      </c>
+      <c r="P257" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="258" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B258"/>
       <c r="D258"/>
       <c r="F258"/>
-    </row>
-    <row r="259" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N258" t="s">
+        <v>273</v>
+      </c>
+      <c r="P258" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="259" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B259"/>
       <c r="D259"/>
       <c r="F259"/>
-    </row>
-    <row r="260" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N259" t="s">
+        <v>274</v>
+      </c>
+      <c r="P259" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="260" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B260"/>
       <c r="D260"/>
       <c r="F260"/>
-    </row>
-    <row r="261" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N260" t="s">
+        <v>275</v>
+      </c>
+      <c r="P260" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="261" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B261"/>
       <c r="D261"/>
       <c r="F261"/>
-    </row>
-    <row r="262" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N261" t="s">
+        <v>276</v>
+      </c>
+      <c r="P261" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="262" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B262"/>
       <c r="D262"/>
       <c r="F262"/>
-    </row>
-    <row r="263" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N262" t="s">
+        <v>277</v>
+      </c>
+      <c r="P262" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="263" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B263"/>
       <c r="D263"/>
       <c r="F263"/>
-    </row>
-    <row r="264" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N263" t="s">
+        <v>278</v>
+      </c>
+      <c r="P263" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="264" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B264"/>
       <c r="D264"/>
       <c r="F264"/>
-    </row>
-    <row r="265" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N264" t="s">
+        <v>279</v>
+      </c>
+      <c r="P264" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="265" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B265"/>
       <c r="D265"/>
       <c r="F265"/>
-    </row>
-    <row r="266" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N265" t="s">
+        <v>280</v>
+      </c>
+      <c r="P265" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="266" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B266"/>
       <c r="D266"/>
       <c r="F266"/>
-    </row>
-    <row r="267" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N266" t="s">
+        <v>281</v>
+      </c>
+      <c r="P266" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="267" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B267"/>
       <c r="D267"/>
       <c r="F267"/>
-    </row>
-    <row r="268" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N267" t="s">
+        <v>282</v>
+      </c>
+      <c r="P267" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="268" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B268"/>
       <c r="D268"/>
       <c r="F268"/>
-    </row>
-    <row r="269" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N268" t="s">
+        <v>283</v>
+      </c>
+      <c r="P268" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="269" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B269"/>
       <c r="D269"/>
       <c r="F269"/>
-    </row>
-    <row r="270" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N269" t="s">
+        <v>284</v>
+      </c>
+      <c r="P269" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="270" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B270"/>
       <c r="D270"/>
       <c r="F270"/>
-    </row>
-    <row r="271" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N270" t="s">
+        <v>285</v>
+      </c>
+      <c r="P270" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="271" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B271"/>
       <c r="D271"/>
       <c r="F271"/>
-    </row>
-    <row r="272" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N271" t="s">
+        <v>286</v>
+      </c>
+      <c r="P271" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="272" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B272"/>
       <c r="D272"/>
       <c r="F272"/>
-    </row>
-    <row r="273" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N272" t="s">
+        <v>287</v>
+      </c>
+      <c r="P272" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="273" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B273"/>
       <c r="D273"/>
       <c r="F273"/>
-    </row>
-    <row r="274" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N273" t="s">
+        <v>288</v>
+      </c>
+      <c r="P273" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="274" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B274"/>
       <c r="D274"/>
       <c r="F274"/>
-    </row>
-    <row r="275" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N274" t="s">
+        <v>289</v>
+      </c>
+      <c r="P274" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="275" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B275"/>
       <c r="D275"/>
       <c r="F275"/>
-    </row>
-    <row r="276" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N275" t="s">
+        <v>290</v>
+      </c>
+      <c r="P275" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="276" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B276"/>
       <c r="D276"/>
       <c r="F276"/>
-    </row>
-    <row r="277" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N276" t="s">
+        <v>291</v>
+      </c>
+      <c r="P276" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="277" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B277"/>
       <c r="D277"/>
       <c r="F277"/>
-    </row>
-    <row r="278" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N277" t="s">
+        <v>292</v>
+      </c>
+      <c r="P277" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="278" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B278"/>
       <c r="D278"/>
       <c r="F278"/>
-    </row>
-    <row r="279" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N278" t="s">
+        <v>293</v>
+      </c>
+      <c r="P278" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="279" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B279"/>
       <c r="D279"/>
       <c r="F279"/>
-    </row>
-    <row r="280" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N279" t="s">
+        <v>294</v>
+      </c>
+      <c r="P279" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="280" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B280"/>
       <c r="D280"/>
       <c r="F280"/>
-    </row>
-    <row r="281" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N280" t="s">
+        <v>295</v>
+      </c>
+      <c r="P280" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="281" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B281"/>
       <c r="D281"/>
       <c r="F281"/>
-    </row>
-    <row r="282" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N281" t="s">
+        <v>296</v>
+      </c>
+      <c r="P281" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="282" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B282"/>
       <c r="D282"/>
       <c r="F282"/>
-    </row>
-    <row r="283" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N282" t="s">
+        <v>297</v>
+      </c>
+      <c r="P282" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="283" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B283"/>
       <c r="D283"/>
       <c r="F283"/>
-    </row>
-    <row r="284" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N283" t="s">
+        <v>298</v>
+      </c>
+      <c r="P283" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="284" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B284"/>
       <c r="D284"/>
       <c r="F284"/>
-    </row>
-    <row r="285" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N284" t="s">
+        <v>299</v>
+      </c>
+      <c r="P284" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="285" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B285"/>
       <c r="D285"/>
       <c r="F285"/>
-    </row>
-    <row r="286" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N285" t="s">
+        <v>300</v>
+      </c>
+      <c r="P285" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="286" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B286"/>
       <c r="D286"/>
       <c r="F286"/>
-    </row>
-    <row r="287" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N286" t="s">
+        <v>301</v>
+      </c>
+      <c r="P286" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="287" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B287"/>
       <c r="D287"/>
       <c r="F287"/>
-    </row>
-    <row r="288" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N287" t="s">
+        <v>302</v>
+      </c>
+      <c r="P287" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="288" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B288"/>
       <c r="D288"/>
       <c r="F288"/>
-    </row>
-    <row r="289" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N288" t="s">
+        <v>303</v>
+      </c>
+      <c r="P288" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="289" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B289"/>
       <c r="D289"/>
       <c r="F289"/>
-    </row>
-    <row r="290" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N289" t="s">
+        <v>304</v>
+      </c>
+      <c r="P289" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="290" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B290"/>
       <c r="D290"/>
       <c r="F290"/>
-    </row>
-    <row r="291" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N290" t="s">
+        <v>305</v>
+      </c>
+      <c r="P290" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="291" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B291"/>
       <c r="D291"/>
       <c r="F291"/>
-    </row>
-    <row r="292" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N291" t="s">
+        <v>306</v>
+      </c>
+      <c r="P291" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="292" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B292"/>
       <c r="D292"/>
       <c r="F292"/>
-    </row>
-    <row r="293" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N292" t="s">
+        <v>307</v>
+      </c>
+      <c r="P292" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="293" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B293"/>
       <c r="D293"/>
       <c r="F293"/>
-    </row>
-    <row r="294" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N293" t="s">
+        <v>308</v>
+      </c>
+      <c r="P293" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="294" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B294"/>
       <c r="D294"/>
       <c r="F294"/>
-    </row>
-    <row r="295" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N294" t="s">
+        <v>309</v>
+      </c>
+      <c r="P294" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="295" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B295"/>
       <c r="D295"/>
       <c r="F295"/>
-    </row>
-    <row r="296" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N295" t="s">
+        <v>310</v>
+      </c>
+      <c r="P295" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="296" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B296"/>
       <c r="D296"/>
       <c r="F296"/>
-    </row>
-    <row r="297" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N296" t="s">
+        <v>311</v>
+      </c>
+      <c r="P296" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="297" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B297"/>
       <c r="D297"/>
       <c r="F297"/>
-    </row>
-    <row r="298" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N297" t="s">
+        <v>312</v>
+      </c>
+      <c r="P297" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="298" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B298"/>
       <c r="D298"/>
       <c r="F298"/>
-    </row>
-    <row r="299" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N298" t="s">
+        <v>313</v>
+      </c>
+      <c r="P298" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="299" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B299"/>
       <c r="D299"/>
       <c r="F299"/>
-    </row>
-    <row r="300" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N299" t="s">
+        <v>314</v>
+      </c>
+      <c r="P299" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="300" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B300"/>
       <c r="D300"/>
       <c r="F300"/>
-    </row>
-    <row r="301" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N300" t="s">
+        <v>315</v>
+      </c>
+      <c r="P300" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="301" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B301"/>
       <c r="D301"/>
       <c r="F301"/>
-    </row>
-    <row r="302" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N301" t="s">
+        <v>316</v>
+      </c>
+      <c r="P301" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="302" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B302"/>
       <c r="D302"/>
       <c r="F302"/>
-    </row>
-    <row r="303" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N302" t="s">
+        <v>317</v>
+      </c>
+      <c r="P302" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="303" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B303"/>
       <c r="D303"/>
       <c r="F303"/>
-    </row>
-    <row r="304" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N303" t="s">
+        <v>318</v>
+      </c>
+      <c r="P303" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="304" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B304"/>
       <c r="D304"/>
       <c r="F304"/>
-    </row>
-    <row r="305" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N304" t="s">
+        <v>319</v>
+      </c>
+      <c r="P304" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="305" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B305"/>
       <c r="D305"/>
       <c r="F305"/>
-    </row>
-    <row r="306" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N305" t="s">
+        <v>320</v>
+      </c>
+      <c r="P305" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="306" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B306"/>
       <c r="D306"/>
       <c r="F306"/>
-    </row>
-    <row r="307" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N306" t="s">
+        <v>321</v>
+      </c>
+      <c r="P306" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="307" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B307"/>
       <c r="D307"/>
       <c r="F307"/>
-    </row>
-    <row r="308" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N307" t="s">
+        <v>322</v>
+      </c>
+      <c r="P307" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="308" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B308"/>
       <c r="D308"/>
       <c r="F308"/>
-    </row>
-    <row r="309" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N308" t="s">
+        <v>323</v>
+      </c>
+      <c r="P308" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="309" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B309"/>
       <c r="D309"/>
       <c r="F309"/>
-    </row>
-    <row r="310" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N309" t="s">
+        <v>324</v>
+      </c>
+      <c r="P309" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="310" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B310"/>
       <c r="D310"/>
       <c r="F310"/>
-    </row>
-    <row r="311" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N310" t="s">
+        <v>325</v>
+      </c>
+      <c r="P310" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="311" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B311"/>
       <c r="D311"/>
       <c r="F311"/>
-    </row>
-    <row r="312" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N311" t="s">
+        <v>326</v>
+      </c>
+      <c r="P311" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="312" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B312"/>
       <c r="D312"/>
       <c r="F312"/>
-    </row>
-    <row r="313" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N312" t="s">
+        <v>327</v>
+      </c>
+      <c r="P312" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="313" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B313"/>
       <c r="D313"/>
       <c r="F313"/>
-    </row>
-    <row r="314" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N313" t="s">
+        <v>328</v>
+      </c>
+      <c r="P313" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="314" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B314"/>
       <c r="D314"/>
       <c r="F314"/>
-    </row>
-    <row r="315" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N314" t="s">
+        <v>329</v>
+      </c>
+      <c r="P314" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="315" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B315"/>
       <c r="D315"/>
       <c r="F315"/>
-    </row>
-    <row r="316" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N315" t="s">
+        <v>330</v>
+      </c>
+      <c r="P315" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="316" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B316"/>
       <c r="D316"/>
       <c r="F316"/>
-    </row>
-    <row r="317" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N316" t="s">
+        <v>331</v>
+      </c>
+      <c r="P316" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="317" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B317"/>
       <c r="D317"/>
       <c r="F317"/>
-    </row>
-    <row r="318" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N317" t="s">
+        <v>332</v>
+      </c>
+      <c r="P317" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="318" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B318"/>
       <c r="D318"/>
       <c r="F318"/>
-    </row>
-    <row r="319" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N318" t="s">
+        <v>333</v>
+      </c>
+      <c r="P318" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="319" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B319"/>
       <c r="D319"/>
       <c r="F319"/>
-    </row>
-    <row r="320" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N319" t="s">
+        <v>334</v>
+      </c>
+      <c r="P319" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="320" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B320"/>
       <c r="D320"/>
       <c r="F320"/>
-    </row>
-    <row r="321" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N320" t="s">
+        <v>335</v>
+      </c>
+      <c r="P320" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="321" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B321"/>
       <c r="D321"/>
       <c r="F321"/>
-    </row>
-    <row r="322" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N321" t="s">
+        <v>336</v>
+      </c>
+      <c r="P321" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="322" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B322"/>
       <c r="D322"/>
       <c r="F322"/>
-    </row>
-    <row r="323" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N322" t="s">
+        <v>337</v>
+      </c>
+      <c r="P322" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="323" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B323"/>
       <c r="D323"/>
       <c r="F323"/>
-    </row>
-    <row r="324" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N323" t="s">
+        <v>338</v>
+      </c>
+      <c r="P323" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="324" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B324"/>
       <c r="D324"/>
       <c r="F324"/>
-    </row>
-    <row r="325" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N324" t="s">
+        <v>339</v>
+      </c>
+      <c r="P324" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="325" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B325"/>
       <c r="D325"/>
       <c r="F325"/>
-    </row>
-    <row r="326" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N325" t="s">
+        <v>340</v>
+      </c>
+      <c r="P325" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="326" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B326"/>
       <c r="D326"/>
       <c r="F326"/>
-    </row>
-    <row r="327" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N326" t="s">
+        <v>341</v>
+      </c>
+      <c r="P326" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="327" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B327"/>
       <c r="D327"/>
       <c r="F327"/>
-    </row>
-    <row r="328" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N327" t="s">
+        <v>342</v>
+      </c>
+      <c r="P327" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="328" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B328"/>
       <c r="D328"/>
       <c r="F328"/>
-    </row>
-    <row r="329" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N328" t="s">
+        <v>343</v>
+      </c>
+      <c r="P328" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="329" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B329"/>
       <c r="D329"/>
       <c r="F329"/>
-    </row>
-    <row r="330" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N329" t="s">
+        <v>344</v>
+      </c>
+      <c r="P329" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="330" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B330"/>
       <c r="D330"/>
       <c r="F330"/>
-    </row>
-    <row r="331" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N330" t="s">
+        <v>345</v>
+      </c>
+      <c r="P330" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="331" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B331"/>
       <c r="D331"/>
       <c r="F331"/>
-    </row>
-    <row r="332" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N331" t="s">
+        <v>346</v>
+      </c>
+      <c r="P331" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="332" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B332"/>
       <c r="D332"/>
       <c r="F332"/>
-    </row>
-    <row r="333" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N332" t="s">
+        <v>347</v>
+      </c>
+      <c r="P332" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="333" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B333"/>
       <c r="D333"/>
       <c r="F333"/>
-    </row>
-    <row r="334" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N333" t="s">
+        <v>348</v>
+      </c>
+      <c r="P333" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="334" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B334"/>
       <c r="D334"/>
       <c r="F334"/>
-    </row>
-    <row r="335" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N334" t="s">
+        <v>349</v>
+      </c>
+      <c r="P334" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="335" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B335"/>
       <c r="D335"/>
       <c r="F335"/>
-    </row>
-    <row r="336" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N335" t="s">
+        <v>350</v>
+      </c>
+      <c r="P335" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="336" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B336"/>
       <c r="D336"/>
       <c r="F336"/>
-    </row>
-    <row r="337" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N336" t="s">
+        <v>351</v>
+      </c>
+      <c r="P336" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="337" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B337"/>
       <c r="D337"/>
       <c r="F337"/>
-    </row>
-    <row r="338" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N337" t="s">
+        <v>352</v>
+      </c>
+      <c r="P337" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="338" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B338"/>
       <c r="D338"/>
       <c r="F338"/>
-    </row>
-    <row r="339" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N338" t="s">
+        <v>353</v>
+      </c>
+      <c r="P338" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="339" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B339"/>
       <c r="D339"/>
       <c r="F339"/>
-    </row>
-    <row r="340" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N339" t="s">
+        <v>354</v>
+      </c>
+      <c r="P339" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="340" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B340"/>
       <c r="D340"/>
       <c r="F340"/>
-    </row>
-    <row r="341" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N340" t="s">
+        <v>355</v>
+      </c>
+      <c r="P340" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="341" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B341"/>
       <c r="D341"/>
       <c r="F341"/>
-    </row>
-    <row r="342" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N341" t="s">
+        <v>356</v>
+      </c>
+      <c r="P341" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="342" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B342"/>
       <c r="D342"/>
       <c r="F342"/>
-    </row>
-    <row r="343" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N342" t="s">
+        <v>357</v>
+      </c>
+      <c r="P342" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="343" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B343"/>
       <c r="D343"/>
       <c r="F343"/>
-    </row>
-    <row r="344" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N343" t="s">
+        <v>358</v>
+      </c>
+      <c r="P343" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="344" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B344"/>
       <c r="D344"/>
       <c r="F344"/>
-    </row>
-    <row r="345" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N344" t="s">
+        <v>359</v>
+      </c>
+      <c r="P344" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="345" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B345"/>
       <c r="D345"/>
       <c r="F345"/>
-    </row>
-    <row r="346" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N345" t="s">
+        <v>360</v>
+      </c>
+      <c r="P345" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="346" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B346"/>
       <c r="D346"/>
       <c r="F346"/>
-    </row>
-    <row r="347" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N346" t="s">
+        <v>361</v>
+      </c>
+      <c r="P346" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="347" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B347"/>
       <c r="D347"/>
       <c r="F347"/>
-    </row>
-    <row r="348" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N347" t="s">
+        <v>362</v>
+      </c>
+      <c r="P347" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="348" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B348"/>
       <c r="D348"/>
       <c r="F348"/>
-    </row>
-    <row r="349" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N348" t="s">
+        <v>363</v>
+      </c>
+      <c r="P348" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="349" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B349"/>
       <c r="D349"/>
       <c r="F349"/>
-    </row>
-    <row r="350" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N349" t="s">
+        <v>364</v>
+      </c>
+      <c r="P349" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="350" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B350"/>
       <c r="D350"/>
       <c r="F350"/>
-    </row>
-    <row r="351" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N350" t="s">
+        <v>365</v>
+      </c>
+      <c r="P350" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="351" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B351"/>
       <c r="D351"/>
       <c r="F351"/>
-    </row>
-    <row r="352" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N351" t="s">
+        <v>366</v>
+      </c>
+      <c r="P351" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="352" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B352"/>
       <c r="D352"/>
       <c r="F352"/>
-    </row>
-    <row r="353" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N352" t="s">
+        <v>367</v>
+      </c>
+      <c r="P352" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="353" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B353"/>
       <c r="D353"/>
       <c r="F353"/>
-    </row>
-    <row r="354" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N353" t="s">
+        <v>368</v>
+      </c>
+      <c r="P353" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="354" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B354"/>
       <c r="D354"/>
       <c r="F354"/>
-    </row>
-    <row r="355" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N354" t="s">
+        <v>369</v>
+      </c>
+      <c r="P354" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="355" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B355"/>
       <c r="D355"/>
       <c r="F355"/>
-    </row>
-    <row r="356" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N355" t="s">
+        <v>370</v>
+      </c>
+      <c r="P355" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="356" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B356"/>
       <c r="D356"/>
       <c r="F356"/>
-    </row>
-    <row r="357" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N356" t="s">
+        <v>371</v>
+      </c>
+      <c r="P356" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="357" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B357"/>
       <c r="D357"/>
       <c r="F357"/>
-    </row>
-    <row r="358" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N357" t="s">
+        <v>372</v>
+      </c>
+      <c r="P357" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="358" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B358"/>
       <c r="D358"/>
       <c r="F358"/>
-    </row>
-    <row r="359" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N358" t="s">
+        <v>373</v>
+      </c>
+      <c r="P358" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="359" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B359"/>
       <c r="D359"/>
       <c r="F359"/>
-    </row>
-    <row r="360" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N359" t="s">
+        <v>374</v>
+      </c>
+      <c r="P359" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="360" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B360"/>
       <c r="D360"/>
       <c r="F360"/>
-    </row>
-    <row r="361" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N360" t="s">
+        <v>375</v>
+      </c>
+      <c r="P360" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="361" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B361"/>
       <c r="D361"/>
       <c r="F361"/>
-    </row>
-    <row r="362" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N361" t="s">
+        <v>376</v>
+      </c>
+      <c r="P361" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="362" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B362"/>
       <c r="D362"/>
       <c r="F362"/>
-    </row>
-    <row r="363" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N362" t="s">
+        <v>377</v>
+      </c>
+      <c r="P362" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="363" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B363"/>
       <c r="D363"/>
       <c r="F363"/>
-    </row>
-    <row r="364" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N363" t="s">
+        <v>378</v>
+      </c>
+      <c r="P363" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="364" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B364"/>
       <c r="D364"/>
       <c r="F364"/>
-    </row>
-    <row r="365" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N364" t="s">
+        <v>379</v>
+      </c>
+      <c r="P364" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="365" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B365"/>
       <c r="D365"/>
       <c r="F365"/>
-    </row>
-    <row r="366" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N365" t="s">
+        <v>380</v>
+      </c>
+      <c r="P365" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="366" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B366"/>
       <c r="D366"/>
       <c r="F366"/>
-    </row>
-    <row r="367" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N366" t="s">
+        <v>381</v>
+      </c>
+      <c r="P366" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="367" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B367"/>
       <c r="D367"/>
       <c r="F367"/>
-    </row>
-    <row r="368" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N367" t="s">
+        <v>382</v>
+      </c>
+      <c r="P367" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="368" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B368"/>
       <c r="D368"/>
       <c r="F368"/>
-    </row>
-    <row r="369" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N368" t="s">
+        <v>383</v>
+      </c>
+      <c r="P368" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="369" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B369"/>
       <c r="D369"/>
       <c r="F369"/>
-    </row>
-    <row r="370" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N369" t="s">
+        <v>384</v>
+      </c>
+      <c r="P369" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="370" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B370"/>
       <c r="D370"/>
       <c r="F370"/>
-    </row>
-    <row r="371" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N370" t="s">
+        <v>385</v>
+      </c>
+      <c r="P370" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="371" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B371"/>
       <c r="D371"/>
       <c r="F371"/>
-    </row>
-    <row r="372" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N371" t="s">
+        <v>386</v>
+      </c>
+      <c r="P371" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="372" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B372"/>
       <c r="D372"/>
       <c r="F372"/>
-    </row>
-    <row r="373" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N372" t="s">
+        <v>387</v>
+      </c>
+      <c r="P372" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="373" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B373"/>
       <c r="D373"/>
       <c r="F373"/>
-    </row>
-    <row r="374" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N373" t="s">
+        <v>388</v>
+      </c>
+      <c r="P373" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="374" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B374"/>
       <c r="D374"/>
       <c r="F374"/>
-    </row>
-    <row r="375" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N374" t="s">
+        <v>389</v>
+      </c>
+      <c r="P374" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="375" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B375"/>
       <c r="D375"/>
       <c r="F375"/>
-    </row>
-    <row r="376" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N375" t="s">
+        <v>390</v>
+      </c>
+      <c r="P375" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="376" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B376"/>
       <c r="D376"/>
       <c r="F376"/>
-    </row>
-    <row r="377" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N376" t="s">
+        <v>391</v>
+      </c>
+      <c r="P376" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="377" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B377"/>
       <c r="D377"/>
       <c r="F377"/>
-    </row>
-    <row r="378" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N377" t="s">
+        <v>392</v>
+      </c>
+      <c r="P377" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="378" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B378"/>
       <c r="D378"/>
       <c r="F378"/>
-    </row>
-    <row r="379" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N378" t="s">
+        <v>393</v>
+      </c>
+      <c r="P378" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="379" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B379"/>
       <c r="D379"/>
       <c r="F379"/>
-    </row>
-    <row r="380" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N379" t="s">
+        <v>394</v>
+      </c>
+      <c r="P379" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="380" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B380"/>
       <c r="D380"/>
       <c r="F380"/>
-    </row>
-    <row r="381" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N380" t="s">
+        <v>395</v>
+      </c>
+      <c r="P380" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="381" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B381"/>
       <c r="D381"/>
       <c r="F381"/>
-    </row>
-    <row r="382" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N381" t="s">
+        <v>396</v>
+      </c>
+      <c r="P381" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="382" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B382"/>
       <c r="D382"/>
       <c r="F382"/>
-    </row>
-    <row r="383" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N382" t="s">
+        <v>397</v>
+      </c>
+      <c r="P382" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="383" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B383"/>
       <c r="D383"/>
       <c r="F383"/>
-    </row>
-    <row r="384" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N383" t="s">
+        <v>398</v>
+      </c>
+      <c r="P383" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="384" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B384"/>
       <c r="D384"/>
       <c r="F384"/>
-    </row>
-    <row r="385" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N384" t="s">
+        <v>399</v>
+      </c>
+      <c r="P384" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="385" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B385"/>
       <c r="D385"/>
       <c r="F385"/>
-    </row>
-    <row r="386" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N385" t="s">
+        <v>400</v>
+      </c>
+      <c r="P385" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="386" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B386"/>
       <c r="D386"/>
       <c r="F386"/>
-    </row>
-    <row r="387" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N386" t="s">
+        <v>401</v>
+      </c>
+      <c r="P386" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="387" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B387"/>
       <c r="D387"/>
       <c r="F387"/>
-    </row>
-    <row r="388" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N387" t="s">
+        <v>402</v>
+      </c>
+      <c r="P387" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="388" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B388"/>
       <c r="D388"/>
       <c r="F388"/>
-    </row>
-    <row r="389" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N388" t="s">
+        <v>403</v>
+      </c>
+      <c r="P388" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="389" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B389"/>
       <c r="D389"/>
       <c r="F389"/>
-    </row>
-    <row r="390" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N389" t="s">
+        <v>404</v>
+      </c>
+      <c r="P389" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="390" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B390"/>
       <c r="D390"/>
       <c r="F390"/>
-    </row>
-    <row r="391" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N390" t="s">
+        <v>405</v>
+      </c>
+      <c r="P390" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="391" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B391"/>
       <c r="D391"/>
       <c r="F391"/>
-    </row>
-    <row r="392" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N391" t="s">
+        <v>406</v>
+      </c>
+      <c r="P391" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="392" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B392"/>
       <c r="D392"/>
       <c r="F392"/>
-    </row>
-    <row r="393" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N392" t="s">
+        <v>407</v>
+      </c>
+      <c r="P392" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="393" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B393"/>
       <c r="D393"/>
       <c r="F393"/>
-    </row>
-    <row r="394" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N393" t="s">
+        <v>408</v>
+      </c>
+      <c r="P393" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="394" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B394"/>
       <c r="D394"/>
       <c r="F394"/>
-    </row>
-    <row r="395" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N394" t="s">
+        <v>409</v>
+      </c>
+      <c r="P394" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="395" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B395"/>
       <c r="D395"/>
       <c r="F395"/>
-    </row>
-    <row r="396" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N395" t="s">
+        <v>410</v>
+      </c>
+      <c r="P395" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="396" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B396"/>
       <c r="D396"/>
       <c r="F396"/>
-    </row>
-    <row r="397" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N396" t="s">
+        <v>411</v>
+      </c>
+      <c r="P396" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="397" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B397"/>
       <c r="D397"/>
       <c r="F397"/>
-    </row>
-    <row r="398" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N397" t="s">
+        <v>412</v>
+      </c>
+      <c r="P397" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="398" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B398"/>
       <c r="D398"/>
       <c r="F398"/>
-    </row>
-    <row r="399" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N398" t="s">
+        <v>413</v>
+      </c>
+      <c r="P398" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="399" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B399"/>
       <c r="D399"/>
       <c r="F399"/>
-    </row>
-    <row r="400" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N399" t="s">
+        <v>414</v>
+      </c>
+      <c r="P399" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="400" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B400"/>
       <c r="D400"/>
       <c r="F400"/>
-    </row>
-    <row r="401" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N400" t="s">
+        <v>415</v>
+      </c>
+      <c r="P400" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="401" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B401"/>
       <c r="D401"/>
       <c r="F401"/>
-    </row>
-    <row r="402" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N401" t="s">
+        <v>416</v>
+      </c>
+      <c r="P401" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="402" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B402"/>
       <c r="D402"/>
       <c r="F402"/>
-    </row>
-    <row r="403" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N402" t="s">
+        <v>417</v>
+      </c>
+      <c r="P402" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="403" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B403"/>
       <c r="D403"/>
       <c r="F403"/>
-    </row>
-    <row r="404" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N403" t="s">
+        <v>418</v>
+      </c>
+      <c r="P403" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="404" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B404"/>
       <c r="D404"/>
       <c r="F404"/>
-    </row>
-    <row r="405" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N404" t="s">
+        <v>419</v>
+      </c>
+      <c r="P404" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="405" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B405"/>
       <c r="D405"/>
       <c r="F405"/>
-    </row>
-    <row r="406" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N405" t="s">
+        <v>420</v>
+      </c>
+      <c r="P405" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="406" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B406"/>
       <c r="D406"/>
       <c r="F406"/>
-    </row>
-    <row r="407" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N406" t="s">
+        <v>421</v>
+      </c>
+      <c r="P406" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="407" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B407"/>
       <c r="D407"/>
       <c r="F407"/>
-    </row>
-    <row r="408" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N407" t="s">
+        <v>422</v>
+      </c>
+      <c r="P407" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="408" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B408"/>
       <c r="D408"/>
       <c r="F408"/>
-    </row>
-    <row r="409" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N408" t="s">
+        <v>423</v>
+      </c>
+      <c r="P408" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="409" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B409"/>
       <c r="D409"/>
       <c r="F409"/>
-    </row>
-    <row r="410" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N409" t="s">
+        <v>424</v>
+      </c>
+      <c r="P409" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="410" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B410"/>
       <c r="D410"/>
       <c r="F410"/>
-    </row>
-    <row r="411" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N410" t="s">
+        <v>425</v>
+      </c>
+      <c r="P410" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="411" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B411"/>
       <c r="D411"/>
       <c r="F411"/>
-    </row>
-    <row r="412" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N411" t="s">
+        <v>426</v>
+      </c>
+      <c r="P411" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="412" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B412"/>
       <c r="D412"/>
       <c r="F412"/>
-    </row>
-    <row r="413" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N412" t="s">
+        <v>427</v>
+      </c>
+      <c r="P412" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="413" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B413"/>
       <c r="D413"/>
       <c r="F413"/>
-    </row>
-    <row r="414" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N413" t="s">
+        <v>428</v>
+      </c>
+      <c r="P413" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="414" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B414"/>
       <c r="D414"/>
       <c r="F414"/>
-    </row>
-    <row r="415" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N414" t="s">
+        <v>429</v>
+      </c>
+      <c r="P414" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="415" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B415"/>
       <c r="D415"/>
       <c r="F415"/>
-    </row>
-    <row r="416" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N415" t="s">
+        <v>430</v>
+      </c>
+      <c r="P415" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="416" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B416"/>
       <c r="D416"/>
       <c r="F416"/>
-    </row>
-    <row r="417" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N416" t="s">
+        <v>431</v>
+      </c>
+      <c r="P416" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="417" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B417"/>
       <c r="D417"/>
       <c r="F417"/>
-    </row>
-    <row r="418" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N417" t="s">
+        <v>432</v>
+      </c>
+      <c r="P417" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="418" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B418"/>
       <c r="D418"/>
       <c r="F418"/>
-    </row>
-    <row r="419" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N418" t="s">
+        <v>433</v>
+      </c>
+      <c r="P418" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="419" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B419"/>
       <c r="D419"/>
       <c r="F419"/>
-    </row>
-    <row r="420" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N419" t="s">
+        <v>434</v>
+      </c>
+      <c r="P419" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="420" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B420"/>
       <c r="D420"/>
       <c r="F420"/>
-    </row>
-    <row r="421" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N420" t="s">
+        <v>435</v>
+      </c>
+      <c r="P420" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="421" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B421"/>
       <c r="D421"/>
       <c r="F421"/>
-    </row>
-    <row r="422" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N421" t="s">
+        <v>436</v>
+      </c>
+      <c r="P421" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="422" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B422"/>
       <c r="D422"/>
       <c r="F422"/>
-    </row>
-    <row r="423" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N422" t="s">
+        <v>437</v>
+      </c>
+      <c r="P422" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="423" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B423"/>
       <c r="D423"/>
       <c r="F423"/>
-    </row>
-    <row r="424" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N423" t="s">
+        <v>438</v>
+      </c>
+      <c r="P423" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="424" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B424"/>
       <c r="D424"/>
       <c r="F424"/>
-    </row>
-    <row r="425" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N424" t="s">
+        <v>439</v>
+      </c>
+      <c r="P424" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="425" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B425"/>
       <c r="D425"/>
       <c r="F425"/>
-    </row>
-    <row r="426" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N425" t="s">
+        <v>440</v>
+      </c>
+      <c r="P425" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="426" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B426"/>
       <c r="D426"/>
       <c r="F426"/>
-    </row>
-    <row r="427" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N426" t="s">
+        <v>441</v>
+      </c>
+      <c r="P426" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="427" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B427"/>
       <c r="D427"/>
       <c r="F427"/>
-    </row>
-    <row r="428" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N427" t="s">
+        <v>442</v>
+      </c>
+      <c r="P427" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="428" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B428"/>
       <c r="D428"/>
       <c r="F428"/>
-    </row>
-    <row r="429" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N428" t="s">
+        <v>443</v>
+      </c>
+      <c r="P428" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="429" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B429"/>
       <c r="D429"/>
       <c r="F429"/>
-    </row>
-    <row r="430" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N429" t="s">
+        <v>444</v>
+      </c>
+      <c r="P429" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="430" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B430"/>
       <c r="D430"/>
       <c r="F430"/>
-    </row>
-    <row r="431" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N430" t="s">
+        <v>445</v>
+      </c>
+      <c r="P430" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="431" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B431"/>
       <c r="D431"/>
       <c r="F431"/>
-    </row>
-    <row r="432" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N431" t="s">
+        <v>446</v>
+      </c>
+      <c r="P431" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="432" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B432"/>
       <c r="D432"/>
       <c r="F432"/>
-    </row>
-    <row r="433" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N432" t="s">
+        <v>447</v>
+      </c>
+      <c r="P432" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="433" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B433"/>
       <c r="D433"/>
       <c r="F433"/>
-    </row>
-    <row r="434" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N433" t="s">
+        <v>448</v>
+      </c>
+      <c r="P433" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="434" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B434"/>
       <c r="D434"/>
       <c r="F434"/>
-    </row>
-    <row r="435" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N434" t="s">
+        <v>449</v>
+      </c>
+      <c r="P434" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="435" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B435"/>
       <c r="D435"/>
       <c r="F435"/>
-    </row>
-    <row r="436" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N435" t="s">
+        <v>450</v>
+      </c>
+      <c r="P435" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="436" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B436"/>
       <c r="D436"/>
       <c r="F436"/>
-    </row>
-    <row r="437" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N436" t="s">
+        <v>451</v>
+      </c>
+      <c r="P436" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="437" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B437"/>
       <c r="D437"/>
       <c r="F437"/>
-    </row>
-    <row r="438" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N437" t="s">
+        <v>452</v>
+      </c>
+      <c r="P437" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="438" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B438"/>
       <c r="D438"/>
       <c r="F438"/>
-    </row>
-    <row r="439" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N438" t="s">
+        <v>453</v>
+      </c>
+      <c r="P438" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="439" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B439"/>
       <c r="D439"/>
       <c r="F439"/>
-    </row>
-    <row r="440" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N439" t="s">
+        <v>454</v>
+      </c>
+      <c r="P439" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="440" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B440"/>
       <c r="D440"/>
       <c r="F440"/>
-    </row>
-    <row r="441" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N440" t="s">
+        <v>455</v>
+      </c>
+      <c r="P440" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="441" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B441"/>
       <c r="D441"/>
       <c r="F441"/>
-    </row>
-    <row r="442" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N441" t="s">
+        <v>456</v>
+      </c>
+      <c r="P441" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="442" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B442"/>
       <c r="D442"/>
       <c r="F442"/>
-    </row>
-    <row r="443" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N442" t="s">
+        <v>457</v>
+      </c>
+      <c r="P442" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="443" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B443"/>
       <c r="D443"/>
       <c r="F443"/>
-    </row>
-    <row r="444" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N443" t="s">
+        <v>458</v>
+      </c>
+      <c r="P443" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="444" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B444"/>
       <c r="D444"/>
       <c r="F444"/>
-    </row>
-    <row r="445" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N444" t="s">
+        <v>459</v>
+      </c>
+      <c r="P444" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="445" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B445"/>
       <c r="D445"/>
       <c r="F445"/>
-    </row>
-    <row r="446" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N445" t="s">
+        <v>460</v>
+      </c>
+      <c r="P445" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="446" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B446"/>
       <c r="D446"/>
       <c r="F446"/>
-    </row>
-    <row r="447" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N446" t="s">
+        <v>461</v>
+      </c>
+      <c r="P446" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="447" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B447"/>
       <c r="D447"/>
       <c r="F447"/>
-    </row>
-    <row r="448" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N447" t="s">
+        <v>462</v>
+      </c>
+      <c r="P447" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="448" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B448"/>
       <c r="D448"/>
       <c r="F448"/>
-    </row>
-    <row r="449" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N448" t="s">
+        <v>463</v>
+      </c>
+      <c r="P448" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="449" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B449"/>
       <c r="D449"/>
       <c r="F449"/>
-    </row>
-    <row r="450" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N449" t="s">
+        <v>464</v>
+      </c>
+      <c r="P449" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="450" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B450"/>
       <c r="D450"/>
       <c r="F450"/>
-    </row>
-    <row r="451" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N450" t="s">
+        <v>465</v>
+      </c>
+      <c r="P450" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="451" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B451"/>
       <c r="D451"/>
       <c r="F451"/>
-    </row>
-    <row r="452" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N451" t="s">
+        <v>466</v>
+      </c>
+      <c r="P451" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="452" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B452"/>
       <c r="D452"/>
       <c r="F452"/>
-    </row>
-    <row r="453" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N452" t="s">
+        <v>467</v>
+      </c>
+      <c r="P452" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="453" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B453"/>
       <c r="D453"/>
       <c r="F453"/>
-    </row>
-    <row r="454" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N453" t="s">
+        <v>468</v>
+      </c>
+      <c r="P453" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="454" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B454"/>
       <c r="D454"/>
       <c r="F454"/>
-    </row>
-    <row r="455" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N454" t="s">
+        <v>469</v>
+      </c>
+      <c r="P454" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="455" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B455"/>
       <c r="D455"/>
       <c r="F455"/>
-    </row>
-    <row r="456" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N455" t="s">
+        <v>470</v>
+      </c>
+      <c r="P455" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="456" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B456"/>
       <c r="D456"/>
       <c r="F456"/>
-    </row>
-    <row r="457" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N456" t="s">
+        <v>471</v>
+      </c>
+      <c r="P456" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="457" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B457"/>
       <c r="D457"/>
       <c r="F457"/>
     </row>
-    <row r="458" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="458" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B458"/>
       <c r="D458"/>
       <c r="F458"/>
     </row>
-    <row r="459" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="459" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B459"/>
       <c r="D459"/>
       <c r="F459"/>
     </row>
-    <row r="460" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="460" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B460"/>
       <c r="D460"/>
       <c r="F460"/>
     </row>
-    <row r="461" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="461" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B461"/>
       <c r="D461"/>
       <c r="F461"/>
     </row>
-    <row r="462" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="462" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B462"/>
       <c r="D462"/>
       <c r="F462"/>
     </row>
-    <row r="463" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="463" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B463"/>
       <c r="D463"/>
       <c r="F463"/>
     </row>
-    <row r="464" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="464" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B464"/>
       <c r="D464"/>
       <c r="F464"/>
